--- a/USHPRR/Kiv_coeffs.xlsx
+++ b/USHPRR/Kiv_coeffs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAA9ECA-841F-5A46-A978-4EE2139475EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C1F70B-EE83-B14B-868C-448C9A7ACBDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19140" yWindow="2860" windowWidth="27640" windowHeight="16940" activeTab="6" xr2:uid="{FFA2698A-787F-734D-BF2D-1E81A61D6120}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="49">
   <si>
     <t>normalized timestep</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>i think this is all wrong</t>
+  </si>
+  <si>
+    <t>1/T</t>
+  </si>
+  <si>
+    <t>average</t>
   </si>
 </sst>
 </file>
@@ -1564,32 +1570,82 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13293815545784049"/>
+                  <c:y val="4.1666666666666666E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="0.000E+00" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>summary!$B$4:$B$10</c:f>
+              <c:f>summary!$E$4:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>600</c:v>
+                  <c:v>19.340938190229732</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>700</c:v>
+                  <c:v>16.577947020196913</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>800</c:v>
+                  <c:v>14.5057036426723</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>900</c:v>
+                  <c:v>12.893958793486487</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>11.604562914137839</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1100</c:v>
+                  <c:v>10.549602649216217</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1200</c:v>
+                  <c:v>9.670469095114866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1628,88 +1684,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A93D-304A-A0DF-6C4EA958AAB8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>summary!$B$4:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>summary!$R$4:$R$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>379</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>994</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2101</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3700</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5791</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8374</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A93D-304A-A0DF-6C4EA958AAB8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1775,6 +1749,7 @@
       <c:valAx>
         <c:axId val="100697295"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -9472,7 +9447,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>summary!$Q$4:$Q$10</c:f>
+              <c:f>summary!$R$4:$R$10</c:f>
               <c:numCache>
                 <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -16526,16 +16501,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16564,16 +16539,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33054,10 +33029,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252FA30F-E103-4649-88D7-4233D6C1B8D8}">
-  <dimension ref="B1:R49"/>
+  <dimension ref="B1:S49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33068,7 +33043,7 @@
     <col min="16" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>14</v>
       </c>
@@ -33076,7 +33051,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -33086,6 +33061,9 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
@@ -33098,17 +33076,20 @@
       <c r="L3" t="s">
         <v>21</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>34</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>600</v>
       </c>
@@ -33119,6 +33100,10 @@
         <f>C4/(0.000000001)</f>
         <v>172072000000</v>
       </c>
+      <c r="E4">
+        <f>1/(B4*0.000086173)</f>
+        <v>19.340938190229732</v>
+      </c>
       <c r="F4">
         <f>(3.41)^3/2</f>
         <v>19.825910500000003</v>
@@ -33141,24 +33126,28 @@
         <f>J4+K4</f>
         <v>1.6548921030675113E-14</v>
       </c>
-      <c r="N4" s="14">
+      <c r="M4">
+        <f>AVERAGE(J4:K4)</f>
+        <v>8.2744605153375566E-15</v>
+      </c>
+      <c r="O4" s="14">
         <f>L4/(0.000000001)</f>
         <v>1.6548921030675113E-5</v>
       </c>
-      <c r="O4" s="17">
-        <f>N4*2000</f>
+      <c r="P4" s="17">
+        <f>O4*2000</f>
         <v>3.3097842061350226E-2</v>
       </c>
-      <c r="Q4" s="14">
-        <f>(24600000)*(B4^2)-(30750000000)*B4+(9850000000000)</f>
+      <c r="R4" s="14">
+        <f t="shared" ref="R4:R10" si="0">(24600000)*(B4^2)-(30750000000)*B4+(9850000000000)</f>
         <v>256000000000</v>
       </c>
-      <c r="R4">
-        <f>(0.0246)*B4^2-(30.75)*B4+9850</f>
+      <c r="S4">
+        <f t="shared" ref="S4:S10" si="1">(0.0246)*B4^2-(30.75)*B4+9850</f>
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>700</v>
       </c>
@@ -33166,8 +33155,12 @@
         <v>429.19900000000001</v>
       </c>
       <c r="D5" s="12">
-        <f t="shared" ref="D5:D10" si="0">C5/(0.000000001)</f>
+        <f t="shared" ref="D5:D10" si="2">C5/(0.000000001)</f>
         <v>429199000000</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E10" si="3">1/(B5*0.000086173)</f>
+        <v>16.577947020196913</v>
       </c>
       <c r="F5">
         <f>F4*1E-30</f>
@@ -33180,35 +33173,39 @@
         <v>700</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J10" si="1">(0.000000000392)*EXP(-0.523/I5/(0.000086173))</f>
+        <f t="shared" ref="J5:J10" si="4">(0.000000000392)*EXP(-0.523/I5/(0.000086173))</f>
         <v>6.7272452384127942E-14</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K10" si="2">(0.000000000266)*EXP(-0.665/I5/(0.000086173))</f>
+        <f t="shared" ref="K5:K10" si="5">(0.000000000266)*EXP(-0.665/I5/(0.000086173))</f>
         <v>4.3358463140515789E-15</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L7" si="3">J5+K5</f>
+        <f t="shared" ref="L5:L7" si="6">J5+K5</f>
         <v>7.1608298698179515E-14</v>
       </c>
-      <c r="N5" s="14">
-        <f t="shared" ref="N5:N7" si="4">L5/(0.000000001)</f>
+      <c r="M5">
+        <f t="shared" ref="M5:M10" si="7">AVERAGE(J5:K5)</f>
+        <v>3.5804149349089757E-14</v>
+      </c>
+      <c r="O5" s="14">
+        <f>L5/(0.000000001)</f>
         <v>7.1608298698179509E-5</v>
       </c>
-      <c r="O5" s="17">
-        <f t="shared" ref="O5:O10" si="5">N5*2000</f>
+      <c r="P5" s="17">
+        <f t="shared" ref="P5:P10" si="8">O5*2000</f>
         <v>0.14321659739635903</v>
       </c>
-      <c r="Q5" s="14">
-        <f t="shared" ref="Q5:Q10" si="6">(24600000)*(B5^2)-(30750000000)*B5+(9850000000000)</f>
+      <c r="R5" s="14">
+        <f t="shared" si="0"/>
         <v>379000000000</v>
       </c>
-      <c r="R5">
-        <f t="shared" ref="R5:R10" si="7">(0.0246)*B5^2-(30.75)*B5+9850</f>
+      <c r="S5">
+        <f t="shared" si="1"/>
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>800</v>
       </c>
@@ -33216,42 +33213,50 @@
         <v>1057.1389999999999</v>
       </c>
       <c r="D6" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1057138999999.9999</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>14.5057036426723</v>
       </c>
       <c r="I6">
         <v>800</v>
       </c>
       <c r="J6">
+        <f t="shared" si="4"/>
+        <v>1.9884668758454518E-13</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>1.7200847663845354E-14</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="6"/>
+        <v>2.1604753524839053E-13</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="7"/>
+        <v>1.0802376762419527E-13</v>
+      </c>
+      <c r="O6" s="14">
+        <f>L6/(0.000000001)</f>
+        <v>2.1604753524839053E-4</v>
+      </c>
+      <c r="P6" s="17">
+        <f t="shared" si="8"/>
+        <v>0.43209507049678109</v>
+      </c>
+      <c r="R6" s="14">
+        <f t="shared" si="0"/>
+        <v>994000000000</v>
+      </c>
+      <c r="S6">
         <f t="shared" si="1"/>
-        <v>1.9884668758454518E-13</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="2"/>
-        <v>1.7200847663845354E-14</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="3"/>
-        <v>2.1604753524839053E-13</v>
-      </c>
-      <c r="N6" s="14">
-        <f t="shared" si="4"/>
-        <v>2.1604753524839053E-4</v>
-      </c>
-      <c r="O6" s="17">
-        <f t="shared" si="5"/>
-        <v>0.43209507049678109</v>
-      </c>
-      <c r="Q6" s="14">
-        <f t="shared" si="6"/>
-        <v>994000000000</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="7"/>
         <v>994</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>900</v>
       </c>
@@ -33259,8 +33264,12 @@
         <v>2280.855</v>
       </c>
       <c r="D7" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2280855000000</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>12.893958793486487</v>
       </c>
       <c r="F7">
         <f>F4/1000</f>
@@ -33273,35 +33282,39 @@
         <v>900</v>
       </c>
       <c r="J7">
+        <f t="shared" si="4"/>
+        <v>4.6195924355603135E-13</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>5.0237863234514219E-14</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="6"/>
+        <v>5.1219710679054559E-13</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="7"/>
+        <v>2.560985533952728E-13</v>
+      </c>
+      <c r="O7" s="14">
+        <f>L7/(0.000000001)</f>
+        <v>5.1219710679054552E-4</v>
+      </c>
+      <c r="P7" s="17">
+        <f t="shared" si="8"/>
+        <v>1.0243942135810911</v>
+      </c>
+      <c r="R7" s="14">
+        <f t="shared" si="0"/>
+        <v>2101000000000</v>
+      </c>
+      <c r="S7">
         <f t="shared" si="1"/>
-        <v>4.6195924355603135E-13</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="2"/>
-        <v>5.0237863234514219E-14</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="3"/>
-        <v>5.1219710679054559E-13</v>
-      </c>
-      <c r="N7" s="14">
-        <f t="shared" si="4"/>
-        <v>5.1219710679054552E-4</v>
-      </c>
-      <c r="O7" s="17">
-        <f t="shared" si="5"/>
-        <v>1.0243942135810911</v>
-      </c>
-      <c r="Q7" s="14">
-        <f t="shared" si="6"/>
-        <v>2101000000000</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="7"/>
         <v>2101</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>1000</v>
       </c>
@@ -33309,42 +33322,50 @@
         <v>3380.337</v>
       </c>
       <c r="D8" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3380337000000</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>11.604562914137839</v>
       </c>
       <c r="I8">
         <v>1000</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.0671730002506872E-13</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.1841758695165239E-13</v>
       </c>
       <c r="L8">
-        <f t="shared" ref="L8:L10" si="8">J8+K8</f>
+        <f t="shared" ref="L8:L10" si="9">J8+K8</f>
         <v>1.0251348869767211E-12</v>
       </c>
-      <c r="N8" s="14">
+      <c r="M8">
+        <f t="shared" si="7"/>
+        <v>5.1256744348836056E-13</v>
+      </c>
+      <c r="O8" s="14">
         <f>L8/(0.000000001)</f>
         <v>1.025134886976721E-3</v>
       </c>
-      <c r="O8" s="17">
-        <f t="shared" si="5"/>
+      <c r="P8" s="17">
+        <f>O8*2000</f>
         <v>2.0502697739534419</v>
       </c>
-      <c r="Q8" s="14">
-        <f t="shared" si="6"/>
+      <c r="R8" s="14">
+        <f t="shared" si="0"/>
         <v>3700000000000</v>
       </c>
-      <c r="R8">
-        <f t="shared" si="7"/>
+      <c r="S8">
+        <f t="shared" si="1"/>
         <v>3700</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>1100</v>
       </c>
@@ -33352,21 +33373,25 @@
         <v>5785.7000000000007</v>
       </c>
       <c r="D9" s="12">
+        <f t="shared" si="2"/>
+        <v>5785700000000</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>10.549602649216217</v>
+      </c>
+      <c r="O9" s="14"/>
+      <c r="P9" s="17"/>
+      <c r="R9" s="14">
         <f t="shared" si="0"/>
-        <v>5785700000000</v>
-      </c>
-      <c r="N9" s="14"/>
-      <c r="O9" s="17"/>
-      <c r="Q9" s="14">
-        <f t="shared" si="6"/>
         <v>5791000000000</v>
       </c>
-      <c r="R9">
-        <f t="shared" si="7"/>
+      <c r="S9">
+        <f t="shared" si="1"/>
         <v>5791</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>1200</v>
       </c>
@@ -33374,42 +33399,50 @@
         <v>8447.3739999999998</v>
       </c>
       <c r="D10" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8447373999999.999</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>9.670469095114866</v>
       </c>
       <c r="I10">
         <v>1200</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.4932984262306196E-12</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.2854238137762868E-13</v>
       </c>
       <c r="L10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.9218408076082482E-12</v>
       </c>
-      <c r="N10" s="14">
+      <c r="M10">
+        <f t="shared" si="7"/>
+        <v>1.4609204038041241E-12</v>
+      </c>
+      <c r="O10" s="14">
         <f>L10/(0.000000001)</f>
         <v>2.9218408076082478E-3</v>
       </c>
-      <c r="O10" s="17">
-        <f t="shared" si="5"/>
+      <c r="P10" s="17">
+        <f t="shared" si="8"/>
         <v>5.8436816152164957</v>
       </c>
-      <c r="Q10" s="14">
-        <f t="shared" si="6"/>
+      <c r="R10" s="14">
+        <f t="shared" si="0"/>
         <v>8374000000000</v>
       </c>
-      <c r="R10">
-        <f t="shared" si="7"/>
+      <c r="S10">
+        <f t="shared" si="1"/>
         <v>8374</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -33423,7 +33456,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>17</v>
       </c>
@@ -33437,7 +33470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>600</v>
       </c>
@@ -33461,19 +33494,20 @@
         <v>600</v>
       </c>
       <c r="H14" s="1">
-        <f>4*3.14*O4*I14/$F$7</f>
+        <f>4*3.14*P4*I14/$F$7</f>
         <v>172.07200000000003</v>
       </c>
       <c r="I14" s="1">
-        <f>(C4*$F$7)/(4*3.14*O4)</f>
+        <f>(C4*$F$7)/(4*3.14*P4)</f>
         <v>8.2064254626188013</v>
       </c>
       <c r="J14" s="16">
         <f>I14/0.34</f>
         <v>24.136545478290589</v>
       </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>700</v>
       </c>
@@ -33486,30 +33520,31 @@
         <v>9.4610393251589143E-6</v>
       </c>
       <c r="E15" s="16">
-        <f t="shared" ref="E15:E19" si="9">D15/(0.00000000034)</f>
+        <f t="shared" ref="E15:E19" si="10">D15/(0.00000000034)</f>
         <v>27826.586250467393</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15:F19" si="10">E15/2000</f>
+        <f t="shared" ref="F15:F19" si="11">E15/2000</f>
         <v>13.913293125233697</v>
       </c>
       <c r="G15">
         <v>700</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" ref="H15:H19" si="11">4*3.14*O5*I15/$F$7</f>
+        <f>4*3.14*P5*I15/$F$7</f>
         <v>429.19900000000001</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" ref="I15:I19" si="12">(C5*$F$7)/(4*3.14*O5)</f>
+        <f>(C5*$F$7)/(4*3.14*P5)</f>
         <v>4.7305196625794572</v>
       </c>
       <c r="J15" s="16">
-        <f t="shared" ref="J15:J19" si="13">I15/0.34</f>
+        <f t="shared" ref="J15:J18" si="12">I15/0.34</f>
         <v>13.913293125233697</v>
       </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>800</v>
       </c>
@@ -33522,30 +33557,31 @@
         <v>7.7237157244546637E-6</v>
       </c>
       <c r="E16" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22716.810954278422</v>
       </c>
       <c r="F16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11.358405477139211</v>
       </c>
       <c r="G16">
         <v>800</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="11"/>
+        <f>4*3.14*P6*I16/$F$7</f>
         <v>1057.1389999999999</v>
       </c>
       <c r="I16" s="1">
+        <f>(C6*$F$7)/(4*3.14*P6)</f>
+        <v>3.8618578622273319</v>
+      </c>
+      <c r="J16" s="16">
         <f t="shared" si="12"/>
-        <v>3.8618578622273319</v>
-      </c>
-      <c r="J16" s="16">
-        <f t="shared" si="13"/>
         <v>11.358405477139211</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>900</v>
       </c>
@@ -33558,30 +33594,31 @@
         <v>7.02917017829598E-6</v>
       </c>
       <c r="E17" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20674.029936164647</v>
       </c>
       <c r="F17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10.337014968082324</v>
       </c>
       <c r="G17">
         <v>900</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="11"/>
+        <f>4*3.14*P7*I17/$F$7</f>
         <v>2280.855</v>
       </c>
       <c r="I17" s="1">
+        <f>(C7*$F$7)/(4*3.14*P7)</f>
+        <v>3.5145850891479906</v>
+      </c>
+      <c r="J17" s="16">
         <f t="shared" si="12"/>
-        <v>3.5145850891479906</v>
-      </c>
-      <c r="J17" s="16">
-        <f t="shared" si="13"/>
         <v>10.337014968082325</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>1000</v>
       </c>
@@ -33594,66 +33631,68 @@
         <v>5.2050210173299376E-6</v>
       </c>
       <c r="E18" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15308.885345088051</v>
       </c>
       <c r="F18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.6544426725440253</v>
       </c>
       <c r="G18">
         <v>1000</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="11"/>
+        <f>4*3.14*P8*I18/$F$7</f>
         <v>3380.3369999999995</v>
       </c>
       <c r="I18" s="1">
+        <f>(C8*$F$7)/(4*3.14*P8)</f>
+        <v>2.6025105086649689</v>
+      </c>
+      <c r="J18" s="16">
         <f t="shared" si="12"/>
-        <v>2.6025105086649689</v>
-      </c>
-      <c r="J18" s="16">
-        <f t="shared" si="13"/>
         <v>7.6544426725440253</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>1200</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" ref="C19" si="14">4*3.14*L10*$D19/$F$5</f>
+        <f t="shared" ref="C19" si="13">4*3.14*L10*$D19/$F$5</f>
         <v>8447373999999.998</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" ref="D19" si="15">(D10*$F$5)/(4*3.14*L10)</f>
+        <f t="shared" ref="D19" si="14">(D10*$F$5)/(4*3.14*L10)</f>
         <v>4.5636115877629306E-6</v>
       </c>
       <c r="E19" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13422.387022832148</v>
       </c>
       <c r="F19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.7111935114160746</v>
       </c>
       <c r="G19">
         <v>1200</v>
       </c>
       <c r="H19" s="1">
-        <f>4*3.14*O10*I19/$F$7</f>
+        <f>4*3.14*P10*I19/$F$7</f>
         <v>8447.3739999999998</v>
       </c>
       <c r="I19" s="1">
-        <f>(C10*$F$7)/(4*3.14*O10)</f>
+        <f>(C10*$F$7)/(4*3.14*P10)</f>
         <v>2.2818057938814658</v>
       </c>
       <c r="J19" s="16">
         <f>I19/0.34</f>
         <v>6.7111935114160755</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K19" s="1"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>19</v>
       </c>
@@ -33661,7 +33700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>600</v>
       </c>
@@ -33674,7 +33713,7 @@
         <v>1.02E-9</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>800</v>
       </c>
@@ -33689,7 +33728,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>1000</v>
       </c>
@@ -33704,7 +33743,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="G25" t="s">
         <v>11</v>
       </c>
@@ -33713,7 +33752,7 @@
         <v>1.9652000000000006E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C26">
         <f>C22*(0.000000001)</f>
         <v>1.0693659547599843E-2</v>
@@ -33726,29 +33765,29 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C27">
-        <f t="shared" ref="C27" si="16">C23*(0.000000001)</f>
+        <f t="shared" ref="C27" si="15">C23*(0.000000001)</f>
         <v>0.13960661143780412</v>
       </c>
       <c r="G27" t="s">
         <v>6</v>
       </c>
       <c r="H27">
-        <f>4*3.14*(N8)*H26/H25</f>
+        <f>4*3.14*(O8)*H26/H25</f>
         <v>0.66828862528170996</v>
       </c>
       <c r="I27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C28">
         <f>C24*(0.000000001)</f>
         <v>0.66242647791818543</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
       <c r="C30" s="4" t="s">
         <v>23</v>
@@ -33757,14 +33796,14 @@
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="6"/>
       <c r="C32" s="7" t="s">
         <v>6</v>

--- a/USHPRR/Kiv_coeffs.xlsx
+++ b/USHPRR/Kiv_coeffs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F760507-F9DD-674A-B74D-7910A4E35696}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A616C7C9-4BBC-DC49-8A6B-0894018F8EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19140" yWindow="2860" windowWidth="27640" windowHeight="16940" activeTab="4" xr2:uid="{FFA2698A-787F-734D-BF2D-1E81A61D6120}"/>
+    <workbookView xWindow="19140" yWindow="2860" windowWidth="27640" windowHeight="16940" activeTab="6" xr2:uid="{FFA2698A-787F-734D-BF2D-1E81A61D6120}"/>
   </bookViews>
   <sheets>
     <sheet name="600 K" sheetId="3" r:id="rId1"/>
@@ -21,17 +21,26 @@
     <sheet name="1200 K" sheetId="7" r:id="rId6"/>
     <sheet name="summary" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="55">
   <si>
     <t>normalized timestep</t>
   </si>
@@ -194,6 +203,32 @@
   <si>
     <t>error</t>
   </si>
+  <si>
+    <r>
+      <t>2.460E+07x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 3.075E+10x + 9.849E+12</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -204,8 +239,16 @@
     <numFmt numFmtId="165" formatCode="0.0000E+00"/>
     <numFmt numFmtId="166" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1947,12 +1990,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.2805118110236216E-2"/>
+                  <c:y val="-9.4367891513560797E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="0.0000E+00" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -2014,30 +2062,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>summary!$C$4:$C$10</c:f>
+              <c:f>summary!$D$4:$D$10</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>172.072</c:v>
+                  <c:v>172072000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>429.19900000000001</c:v>
+                  <c:v>429199000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1057.1389999999999</c:v>
+                  <c:v>1057138999999.9999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2280.855</c:v>
+                  <c:v>2280855000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3380.337</c:v>
+                  <c:v>3380337000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5785.7000000000007</c:v>
+                  <c:v>5785700000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8447.3739999999998</c:v>
+                  <c:v>8447373999999.999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2143,7 +2191,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9458,6 +9506,52 @@
                   <c:y val="-0.12444043452901721"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = 2.460E+07x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000"/>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> - 3.075E+10x + 9.849E+12</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>R² = 9.973E-01</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="0.000E+00" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -9931,29 +10025,32 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>summary!$B$4:$B$10</c:f>
+              <c:f>summary!$Q$3:$Q$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>600</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>700</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>800</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>900</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1100</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1200</c:v>
                 </c:pt>
               </c:numCache>
@@ -9961,30 +10058,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>summary!$R$4:$R$10</c:f>
+              <c:f>summary!$R$3:$R$10</c:f>
               <c:numCache>
                 <c:formatCode>0.000E+00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>256000000000</c:v>
+                  <c:v>18965733442.117989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>379000000000</c:v>
+                  <c:v>188654642914.60367</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>994000000000</c:v>
+                  <c:v>451829537436.12347</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2101000000000</c:v>
+                  <c:v>962820640302.08105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3700000000000</c:v>
+                  <c:v>1876572524962.2778</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5791000000000</c:v>
+                  <c:v>3408930471989.5225</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8374000000000</c:v>
+                  <c:v>5849797318633.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9577303437346.7676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10212,8 +10312,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -18023,9 +18122,9 @@
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K1" t="s">
         <v>4</v>
       </c>
@@ -18036,7 +18135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K2" t="s">
         <v>5</v>
       </c>
@@ -18048,7 +18147,7 @@
         <v>17207200000</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="F3" t="s">
         <v>0</v>
       </c>
@@ -18062,7 +18161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>24</v>
       </c>
@@ -18096,7 +18195,7 @@
         <v>0.79548181245807792</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>25</v>
       </c>
@@ -18126,7 +18225,7 @@
         <v>3.9707632360355054E-4</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>26</v>
       </c>
@@ -18156,7 +18255,7 @@
         <v>3.9572441587801792E-4</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>27</v>
       </c>
@@ -18186,7 +18285,7 @@
         <v>3.9438168247475782E-4</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>28</v>
       </c>
@@ -18216,7 +18315,7 @@
         <v>3.9304803032133421E-4</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>29</v>
       </c>
@@ -18246,7 +18345,7 @@
         <v>3.9172336760001338E-4</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>30</v>
       </c>
@@ -18276,7 +18375,7 @@
         <v>3.9040760372669196E-4</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>31</v>
       </c>
@@ -18306,7 +18405,7 @@
         <v>3.8910064933024802E-4</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>32</v>
       </c>
@@ -18336,7 +18435,7 @@
         <v>3.8780241623230559E-4</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>33</v>
       </c>
@@ -18366,7 +18465,7 @@
         <v>3.8651281742740272E-4</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>34</v>
       </c>
@@ -18396,7 +18495,7 @@
         <v>3.852317670635541E-4</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>35</v>
       </c>
@@ -18426,7 +18525,7 @@
         <v>3.839591804231988E-4</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>36</v>
       </c>
@@ -18456,7 +18555,7 @@
         <v>3.8269497390452494E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>37</v>
       </c>
@@ -18486,7 +18585,7 @@
         <v>3.8143906500316113E-4</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>38</v>
       </c>
@@ -18516,7 +18615,7 @@
         <v>3.8019137229422794E-4</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>39</v>
       </c>
@@ -18546,7 +18645,7 @@
         <v>3.7895181541474038E-4</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>40</v>
       </c>
@@ -18576,7 +18675,7 @@
         <v>3.7772031504635333E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>41</v>
       </c>
@@ -18606,7 +18705,7 @@
         <v>3.7649679289844247E-4</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>42</v>
       </c>
@@ -18636,7 +18735,7 @@
         <v>3.7528117169151277E-4</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>43</v>
       </c>
@@ -18666,7 +18765,7 @@
         <v>3.7407337514092776E-4</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>44</v>
       </c>
@@ -18696,7 +18795,7 @@
         <v>3.7287332794095138E-4</v>
       </c>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>45</v>
       </c>
@@ -18726,7 +18825,7 @@
         <v>3.7168095574909672E-4</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>46</v>
       </c>
@@ -18756,7 +18855,7 @@
         <v>3.7049618517077362E-4</v>
       </c>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>47</v>
       </c>
@@ -18786,7 +18885,7 @@
         <v>3.6931894374422908E-4</v>
       </c>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>48</v>
       </c>
@@ -18816,7 +18915,7 @@
         <v>3.6814915992577376E-4</v>
       </c>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>49</v>
       </c>
@@ -18846,7 +18945,7 @@
         <v>3.6698676307528858E-4</v>
       </c>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>50</v>
       </c>
@@ -18876,7 +18975,7 @@
         <v>3.6583168344200519E-4</v>
       </c>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>51</v>
       </c>
@@ -18906,7 +19005,7 @@
         <v>3.6468385215055339E-4</v>
       </c>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>52</v>
       </c>
@@ -18936,7 +19035,7 @@
         <v>3.6354320118727108E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>53</v>
       </c>
@@ -18966,7 +19065,7 @@
         <v>3.6240966338677011E-4</v>
       </c>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>54</v>
       </c>
@@ -18996,7 +19095,7 @@
         <v>3.6128317241875284E-4</v>
       </c>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>55</v>
       </c>
@@ -19026,7 +19125,7 @@
         <v>3.6016366277507331E-4</v>
       </c>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>56</v>
       </c>
@@ -19056,7 +19155,7 @@
         <v>3.5905106975703884E-4</v>
       </c>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>57</v>
       </c>
@@ -19086,7 +19185,7 @@
         <v>3.5794532946294583E-4</v>
       </c>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>58</v>
       </c>
@@ -19116,7 +19215,7 @@
         <v>3.5684637877584534E-4</v>
       </c>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>59</v>
       </c>
@@ -19146,7 +19245,7 @@
         <v>3.5575415535153368E-4</v>
       </c>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>60</v>
       </c>
@@ -19176,7 +19275,7 @@
         <v>3.5466859760676191E-4</v>
       </c>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>61</v>
       </c>
@@ -19206,7 +19305,7 @@
         <v>3.5358964470766168E-4</v>
       </c>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>62</v>
       </c>
@@ -19236,7 +19335,7 @@
         <v>3.525172365583809E-4</v>
       </c>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>63</v>
       </c>
@@ -19266,7 +19365,7 @@
         <v>3.5145131378992603E-4</v>
       </c>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>64</v>
       </c>
@@ -19296,7 +19395,7 @@
         <v>3.5039181774920605E-4</v>
       </c>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>65</v>
       </c>
@@ -19326,7 +19425,7 @@
         <v>3.493386904882738E-4</v>
       </c>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>66</v>
       </c>
@@ -19356,7 +19455,7 @@
         <v>3.4829187475376099E-4</v>
       </c>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>67</v>
       </c>
@@ -19386,7 +19485,7 @@
         <v>3.4725131397650286E-4</v>
       </c>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>68</v>
       </c>
@@ -19416,7 +19515,7 @@
         <v>3.4621695226134735E-4</v>
       </c>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>69</v>
       </c>
@@ -19446,7 +19545,7 @@
         <v>3.4518873437714705E-4</v>
       </c>
     </row>
-    <row r="50" spans="2:11">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>70</v>
       </c>
@@ -19476,7 +19575,7 @@
         <v>3.4416660574692801E-4</v>
       </c>
     </row>
-    <row r="51" spans="2:11">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>71</v>
       </c>
@@ -19506,7 +19605,7 @@
         <v>3.4315051243823309E-4</v>
       </c>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>72</v>
       </c>
@@ -19536,7 +19635,7 @@
         <v>3.4214040115363619E-4</v>
       </c>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>73</v>
       </c>
@@ -19566,7 +19665,7 @@
         <v>3.4113621922142272E-4</v>
       </c>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>74</v>
       </c>
@@ -19596,7 +19695,7 @@
         <v>3.4013791458643432E-4</v>
       </c>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>75</v>
       </c>
@@ -19626,7 +19725,7 @@
         <v>3.3914543580107373E-4</v>
       </c>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>76</v>
       </c>
@@ -19656,7 +19755,7 @@
         <v>3.3815873201646662E-4</v>
       </c>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>77</v>
       </c>
@@ -19686,7 +19785,7 @@
         <v>3.3717775297377749E-4</v>
       </c>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>78</v>
       </c>
@@ -19716,7 +19815,7 @@
         <v>3.3620244899567573E-4</v>
       </c>
     </row>
-    <row r="59" spans="2:11">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>79</v>
       </c>
@@ -19746,7 +19845,7 @@
         <v>3.3523277097794986E-4</v>
       </c>
     </row>
-    <row r="60" spans="2:11">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>80</v>
       </c>
@@ -19776,7 +19875,7 @@
         <v>3.3426867038126637E-4</v>
       </c>
     </row>
-    <row r="61" spans="2:11">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>81</v>
       </c>
@@ -19806,7 +19905,7 @@
         <v>3.3331009922307032E-4</v>
       </c>
     </row>
-    <row r="62" spans="2:11">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>82</v>
       </c>
@@ -19836,7 +19935,7 @@
         <v>3.3235701006962496E-4</v>
       </c>
     </row>
-    <row r="63" spans="2:11">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>83</v>
       </c>
@@ -19866,7 +19965,7 @@
         <v>3.3140935602818709E-4</v>
       </c>
     </row>
-    <row r="64" spans="2:11">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>84</v>
       </c>
@@ -19896,7 +19995,7 @@
         <v>3.3046709073931676E-4</v>
       </c>
     </row>
-    <row r="65" spans="2:11">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>85</v>
       </c>
@@ -19926,7 +20025,7 @@
         <v>3.2953016836931716E-4</v>
       </c>
     </row>
-    <row r="66" spans="2:11">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>86</v>
       </c>
@@ -19956,7 +20055,7 @@
         <v>3.2859854360280257E-4</v>
       </c>
     </row>
-    <row r="67" spans="2:11">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>87</v>
       </c>
@@ -19986,7 +20085,7 @@
         <v>3.2767217163539279E-4</v>
       </c>
     </row>
-    <row r="68" spans="2:11">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>88</v>
       </c>
@@ -20016,7 +20115,7 @@
         <v>3.2675100816653024E-4</v>
       </c>
     </row>
-    <row r="69" spans="2:11">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>89</v>
       </c>
@@ -20046,7 +20145,7 @@
         <v>3.2583500939241774E-4</v>
       </c>
     </row>
-    <row r="70" spans="2:11">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>90</v>
       </c>
@@ -20076,7 +20175,7 @@
         <v>3.2492413199907539E-4</v>
       </c>
     </row>
-    <row r="71" spans="2:11">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>91</v>
       </c>
@@ -20106,7 +20205,7 @@
         <v>3.2401833315551292E-4</v>
       </c>
     </row>
-    <row r="72" spans="2:11">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>92</v>
       </c>
@@ -20136,7 +20235,7 @@
         <v>3.2311757050701624E-4</v>
       </c>
     </row>
-    <row r="73" spans="2:11">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>93</v>
       </c>
@@ -20166,7 +20265,7 @@
         <v>3.2222180216854559E-4</v>
       </c>
     </row>
-    <row r="74" spans="2:11">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>94</v>
       </c>
@@ -20196,7 +20295,7 @@
         <v>3.2133098671824356E-4</v>
       </c>
     </row>
-    <row r="75" spans="2:11">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>95</v>
       </c>
@@ -20226,7 +20325,7 @@
         <v>3.2044508319104963E-4</v>
       </c>
     </row>
-    <row r="76" spans="2:11">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>96</v>
       </c>
@@ -20256,7 +20355,7 @@
         <v>3.1956405107242086E-4</v>
       </c>
     </row>
-    <row r="77" spans="2:11">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>97</v>
       </c>
@@ -20286,7 +20385,7 @@
         <v>3.1868785029215559E-4</v>
       </c>
     </row>
-    <row r="78" spans="2:11">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>98</v>
       </c>
@@ -20316,7 +20415,7 @@
         <v>3.1781644121831867E-4</v>
       </c>
     </row>
-    <row r="79" spans="2:11">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>99</v>
       </c>
@@ -20360,9 +20459,9 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K1" t="s">
         <v>4</v>
       </c>
@@ -20373,7 +20472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K2" t="s">
         <v>5</v>
       </c>
@@ -20385,7 +20484,7 @@
         <v>42919900000</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="F3" t="s">
         <v>0</v>
       </c>
@@ -20399,7 +20498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>16</v>
       </c>
@@ -20429,7 +20528,7 @@
         <v>3.9062500000000002E-4</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>17</v>
       </c>
@@ -20459,7 +20558,7 @@
         <v>3.8737769299887839E-4</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>18</v>
       </c>
@@ -20489,7 +20588,7 @@
         <v>3.8418393128424738E-4</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>19</v>
       </c>
@@ -20519,7 +20618,7 @@
         <v>3.810424013124472E-4</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>20</v>
       </c>
@@ -20549,7 +20648,7 @@
         <v>3.7795183215552208E-4</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>21</v>
       </c>
@@ -20579,7 +20678,7 @@
         <v>3.7491099378688129E-4</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>22</v>
       </c>
@@ -20609,7 +20708,7 @@
         <v>3.7191869544905782E-4</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>23</v>
       </c>
@@ -20639,7 +20738,7 @@
         <v>3.6897378409901204E-4</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>24</v>
       </c>
@@ -20669,7 +20768,7 @@
         <v>3.6607514292671809E-4</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>25</v>
       </c>
@@ -20699,7 +20798,7 @@
         <v>3.632216899430325E-4</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>26</v>
       </c>
@@ -20729,7 +20828,7 @@
         <v>3.6041237663309608E-4</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>27</v>
       </c>
@@ -20759,7 +20858,7 @@
         <v>3.5764618667174619E-4</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>28</v>
       </c>
@@ -20789,7 +20888,7 @@
         <v>3.5492213469763513E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>29</v>
       </c>
@@ -20819,7 +20918,7 @@
         <v>3.5223926514294651E-4</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>30</v>
       </c>
@@ -20849,7 +20948,7 @@
         <v>3.4959665111579196E-4</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>31</v>
       </c>
@@ -20879,7 +20978,7 @@
         <v>3.4699339333253931E-4</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>32</v>
       </c>
@@ -20909,7 +21008,7 @@
         <v>3.4442861909749232E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>33</v>
       </c>
@@ -20939,7 +21038,7 @@
         <v>3.4190148132748653E-4</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>34</v>
       </c>
@@ -20969,7 +21068,7 @@
         <v>3.3941115761911358E-4</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>35</v>
       </c>
@@ -20999,7 +21098,7 @@
         <v>3.3695684935641497E-4</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>36</v>
       </c>
@@ -21029,7 +21128,7 @@
         <v>3.3453778085701223E-4</v>
       </c>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>37</v>
       </c>
@@ -21059,7 +21158,7 @@
         <v>3.3215319855475496E-4</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>38</v>
       </c>
@@ -21089,7 +21188,7 @@
         <v>3.2980237021707821E-4</v>
       </c>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>39</v>
       </c>
@@ -21119,7 +21218,7 @@
         <v>3.2748458419536148E-4</v>
       </c>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>40</v>
       </c>
@@ -21149,7 +21248,7 @@
         <v>3.251991487066765E-4</v>
       </c>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>41</v>
       </c>
@@ -21179,7 +21278,7 @@
         <v>3.2294539114540252E-4</v>
       </c>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>42</v>
       </c>
@@ -21209,7 +21308,7 @@
         <v>3.2072265742326861E-4</v>
       </c>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>43</v>
       </c>
@@ -21239,7 +21338,7 @@
         <v>3.1853031133646353E-4</v>
       </c>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>44</v>
       </c>
@@ -21269,7 +21368,7 @@
         <v>3.1636773395852662E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>45</v>
       </c>
@@ -21299,7 +21398,7 @@
         <v>3.1423432305780288E-4</v>
       </c>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>46</v>
       </c>
@@ -21329,7 +21428,7 @@
         <v>3.121294925383104E-4</v>
       </c>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>47</v>
       </c>
@@ -21359,7 +21458,7 @@
         <v>3.1005267190292924E-4</v>
       </c>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>48</v>
       </c>
@@ -21389,7 +21488,7 @@
         <v>3.0800330573787984E-4</v>
       </c>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>49</v>
       </c>
@@ -21419,7 +21518,7 @@
         <v>3.0598085321751186E-4</v>
       </c>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>50</v>
       </c>
@@ -21449,7 +21548,7 @@
         <v>3.0398478762847571E-4</v>
       </c>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>51</v>
       </c>
@@ -21479,7 +21578,7 @@
         <v>3.0201459591239855E-4</v>
       </c>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>52</v>
       </c>
@@ -21509,7 +21608,7 @@
         <v>3.0006977822622872E-4</v>
       </c>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>53</v>
       </c>
@@ -21539,7 +21638,7 @@
         <v>2.9814984751945961E-4</v>
       </c>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>54</v>
       </c>
@@ -21569,7 +21668,7 @@
         <v>2.9625432912747975E-4</v>
       </c>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>55</v>
       </c>
@@ -21599,7 +21698,7 @@
         <v>2.9438276038033724E-4</v>
       </c>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>56</v>
       </c>
@@ -21629,7 +21728,7 @@
         <v>2.9253469022624048E-4</v>
       </c>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>57</v>
       </c>
@@ -21659,7 +21758,7 @@
         <v>2.9070967886915213E-4</v>
       </c>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>58</v>
       </c>
@@ -21689,7 +21788,7 @@
         <v>2.8890729741986427E-4</v>
       </c>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>59</v>
       </c>
@@ -21719,7 +21818,7 @@
         <v>2.8712712755997347E-4</v>
       </c>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>60</v>
       </c>
@@ -21749,7 +21848,7 @@
         <v>2.8536876121820271E-4</v>
       </c>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>61</v>
       </c>
@@ -21779,7 +21878,7 @@
         <v>2.8363180025854461E-4</v>
       </c>
     </row>
-    <row r="50" spans="2:11">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>62</v>
       </c>
@@ -21809,7 +21908,7 @@
         <v>2.8191585617972384E-4</v>
       </c>
     </row>
-    <row r="51" spans="2:11">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>63</v>
       </c>
@@ -21839,7 +21938,7 @@
         <v>2.8022054982550459E-4</v>
       </c>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>64</v>
       </c>
@@ -21869,7 +21968,7 @@
         <v>2.7854551110538669E-4</v>
       </c>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>65</v>
       </c>
@@ -21899,7 +21998,7 @@
         <v>2.7689037872526064E-4</v>
       </c>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>66</v>
       </c>
@@ -21929,7 +22028,7 @@
         <v>2.7525479992760799E-4</v>
       </c>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>67</v>
       </c>
@@ -21959,7 +22058,7 @@
         <v>2.7363843024085562E-4</v>
       </c>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>68</v>
       </c>
@@ -21989,7 +22088,7 @@
         <v>2.7204093323750965E-4</v>
       </c>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>69</v>
       </c>
@@ -22019,7 +22118,7 @@
         <v>2.7046198030071235E-4</v>
       </c>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>70</v>
       </c>
@@ -22049,7 +22148,7 @@
         <v>2.6890125039888142E-4</v>
       </c>
     </row>
-    <row r="59" spans="2:11">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>71</v>
       </c>
@@ -22079,7 +22178,7 @@
         <v>2.6735842986810746E-4</v>
       </c>
     </row>
-    <row r="60" spans="2:11">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>72</v>
       </c>
@@ -22109,7 +22208,7 @@
         <v>2.6583321220199967E-4</v>
       </c>
     </row>
-    <row r="61" spans="2:11">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>73</v>
       </c>
@@ -22139,7 +22238,7 @@
         <v>2.6432529784868413E-4</v>
       </c>
     </row>
-    <row r="62" spans="2:11">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>74</v>
       </c>
@@ -22169,7 +22268,7 @@
         <v>2.6283439401467211E-4</v>
       </c>
     </row>
-    <row r="63" spans="2:11">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>75</v>
       </c>
@@ -22199,7 +22298,7 @@
         <v>2.6136021447532832E-4</v>
       </c>
     </row>
-    <row r="64" spans="2:11">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>76</v>
       </c>
@@ -22229,7 +22328,7 @@
         <v>2.5990247939168266E-4</v>
       </c>
     </row>
-    <row r="65" spans="2:11">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>77</v>
       </c>
@@ -22259,7 +22358,7 @@
         <v>2.5846091513333756E-4</v>
       </c>
     </row>
-    <row r="66" spans="2:11">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>78</v>
       </c>
@@ -22289,7 +22388,7 @@
         <v>2.5703525410723701E-4</v>
       </c>
     </row>
-    <row r="67" spans="2:11">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>79</v>
       </c>
@@ -22319,7 +22418,7 @@
         <v>2.5562523459207081E-4</v>
       </c>
     </row>
-    <row r="68" spans="2:11">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>80</v>
       </c>
@@ -22349,7 +22448,7 @@
         <v>2.5423060057810004E-4</v>
       </c>
     </row>
-    <row r="69" spans="2:11">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>81</v>
       </c>
@@ -22379,7 +22478,7 @@
         <v>2.5285110161219756E-4</v>
       </c>
     </row>
-    <row r="70" spans="2:11">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>82</v>
       </c>
@@ -22409,7 +22508,7 @@
         <v>2.5148649264790558E-4</v>
       </c>
     </row>
-    <row r="71" spans="2:11">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>83</v>
       </c>
@@ -22439,7 +22538,7 @@
         <v>2.501365339003228E-4</v>
       </c>
     </row>
-    <row r="72" spans="2:11">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>84</v>
       </c>
@@ -22469,7 +22568,7 @@
         <v>2.4880099070564093E-4</v>
       </c>
     </row>
-    <row r="73" spans="2:11">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>85</v>
       </c>
@@ -22499,7 +22598,7 @@
         <v>2.4747963338515595E-4</v>
       </c>
     </row>
-    <row r="74" spans="2:11">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>86</v>
       </c>
@@ -22529,7 +22628,7 @@
         <v>2.4617223711359115E-4</v>
       </c>
     </row>
-    <row r="75" spans="2:11">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>87</v>
       </c>
@@ -22559,7 +22658,7 @@
         <v>2.4487858179157067E-4</v>
       </c>
     </row>
-    <row r="76" spans="2:11">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>88</v>
       </c>
@@ -22589,7 +22688,7 @@
         <v>2.4359845192209407E-4</v>
       </c>
     </row>
-    <row r="77" spans="2:11">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>89</v>
       </c>
@@ -22619,7 +22718,7 @@
         <v>2.4233163649086488E-4</v>
       </c>
     </row>
-    <row r="78" spans="2:11">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>90</v>
       </c>
@@ -22649,7 +22748,7 @@
         <v>2.4107792885033337E-4</v>
       </c>
     </row>
-    <row r="79" spans="2:11">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>91</v>
       </c>
@@ -22679,7 +22778,7 @@
         <v>2.3983712660732097E-4</v>
       </c>
     </row>
-    <row r="80" spans="2:11">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B80">
         <v>92</v>
       </c>
@@ -22709,7 +22808,7 @@
         <v>2.3860903151409692E-4</v>
       </c>
     </row>
-    <row r="81" spans="2:11">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81">
         <v>93</v>
       </c>
@@ -22739,7 +22838,7 @@
         <v>2.3739344936278434E-4</v>
       </c>
     </row>
-    <row r="82" spans="2:11">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B82">
         <v>94</v>
       </c>
@@ -22769,7 +22868,7 @@
         <v>2.3619018988297745E-4</v>
       </c>
     </row>
-    <row r="83" spans="2:11">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>95</v>
       </c>
@@ -22799,7 +22898,7 @@
         <v>2.3499906664245707E-4</v>
       </c>
     </row>
-    <row r="84" spans="2:11">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B84">
         <v>96</v>
       </c>
@@ -22829,7 +22928,7 @@
         <v>2.3381989695089501E-4</v>
       </c>
     </row>
-    <row r="85" spans="2:11">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B85">
         <v>97</v>
       </c>
@@ -22859,7 +22958,7 @@
         <v>2.326525017664432E-4</v>
       </c>
     </row>
-    <row r="86" spans="2:11">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>98</v>
       </c>
@@ -22889,7 +22988,7 @@
         <v>2.3149670560510707E-4</v>
       </c>
     </row>
-    <row r="87" spans="2:11">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B87">
         <v>99</v>
       </c>
@@ -22933,12 +23032,12 @@
       <selection activeCell="N1" sqref="N1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K1" t="s">
         <v>4</v>
       </c>
@@ -22949,7 +23048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K2" t="s">
         <v>5</v>
       </c>
@@ -22961,7 +23060,7 @@
         <v>105713899999.99998</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="F3" t="s">
         <v>0</v>
       </c>
@@ -22975,7 +23074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>18</v>
       </c>
@@ -23005,7 +23104,7 @@
         <v>3.9062500000000002E-4</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>19</v>
       </c>
@@ -23035,7 +23134,7 @@
         <v>3.8272282759299169E-4</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>20</v>
       </c>
@@ -23065,7 +23164,7 @@
         <v>3.7513403069999371E-4</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>21</v>
       </c>
@@ -23095,7 +23194,7 @@
         <v>3.6784033051777924E-4</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>22</v>
       </c>
@@ -23125,7 +23224,7 @@
         <v>3.6082484270382218E-4</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>23</v>
       </c>
@@ -23155,7 +23254,7 @@
         <v>3.5407194688849987E-4</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>24</v>
       </c>
@@ -23185,7 +23284,7 @@
         <v>3.4756717057070916E-4</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>25</v>
       </c>
@@ -23215,7 +23314,7 @@
         <v>3.4129708558056847E-4</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>26</v>
       </c>
@@ -23245,7 +23344,7 @@
         <v>3.3524921555036052E-4</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>27</v>
       </c>
@@ -23275,7 +23374,7 @@
         <v>3.2941195305201084E-4</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>28</v>
       </c>
@@ -23305,7 +23404,7 @@
         <v>3.237744852430875E-4</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>29</v>
       </c>
@@ -23335,7 +23434,7 @@
         <v>3.1832672701918581E-4</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>30</v>
       </c>
@@ -23365,7 +23464,7 @@
         <v>3.1305926080322117E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>31</v>
       </c>
@@ -23395,7 +23494,7 @@
         <v>3.0796328221538075E-4</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>32</v>
       </c>
@@ -23425,7 +23524,7 @@
         <v>3.0303055096439019E-4</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>33</v>
       </c>
@@ -23455,7 +23554,7 @@
         <v>2.9825334638390556E-4</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>34</v>
       </c>
@@ -23485,7 +23584,7 @@
         <v>2.9362442710938029E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>35</v>
       </c>
@@ -23515,7 +23614,7 @@
         <v>2.8913699445245864E-4</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>36</v>
       </c>
@@ -23545,7 +23644,7 @@
         <v>2.8478465908328789E-4</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>37</v>
       </c>
@@ -23575,7 +23674,7 @@
         <v>2.805614106773621E-4</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>38</v>
       </c>
@@ -23605,7 +23704,7 @@
         <v>2.7646159022365471E-4</v>
       </c>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>39</v>
       </c>
@@ -23635,7 +23734,7 @@
         <v>2.7247986472573628E-4</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>40</v>
       </c>
@@ -23665,7 +23764,7 @@
         <v>2.6861120405804914E-4</v>
       </c>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>41</v>
       </c>
@@ -23695,7 +23794,7 @@
         <v>2.6485085976614441E-4</v>
       </c>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>42</v>
       </c>
@@ -23725,7 +23824,7 @@
         <v>2.6119434562301487E-4</v>
       </c>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>43</v>
       </c>
@@ -23755,7 +23854,7 @@
         <v>2.5763741977412281E-4</v>
       </c>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>44</v>
       </c>
@@ -23785,7 +23884,7 @@
         <v>2.5417606832171385E-4</v>
       </c>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>45</v>
       </c>
@@ -23815,7 +23914,7 @@
         <v>2.508064902148538E-4</v>
       </c>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>46</v>
       </c>
@@ -23845,7 +23944,7 @@
         <v>2.4752508332560646E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>47</v>
       </c>
@@ -23875,7 +23974,7 @@
         <v>2.4432843160412211E-4</v>
       </c>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>48</v>
       </c>
@@ -23905,7 +24004,7 @@
         <v>2.4121329321634652E-4</v>
       </c>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>49</v>
       </c>
@@ -23935,7 +24034,7 @@
         <v>2.3817658957775689E-4</v>
       </c>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>50</v>
       </c>
@@ -23965,7 +24064,7 @@
         <v>2.3521539520514358E-4</v>
       </c>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>51</v>
       </c>
@@ -23995,7 +24094,7 @@
         <v>2.3232692831611873E-4</v>
       </c>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>52</v>
       </c>
@@ -24025,7 +24124,7 @@
         <v>2.2950854211285522E-4</v>
       </c>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>53</v>
       </c>
@@ -24055,7 +24154,7 @@
         <v>2.2675771669265028E-4</v>
       </c>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>54</v>
       </c>
@@ -24085,7 +24184,7 @@
         <v>2.2407205153334521E-4</v>
       </c>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>55</v>
       </c>
@@ -24115,7 +24214,7 @@
         <v>2.2144925850649992E-4</v>
       </c>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>56</v>
       </c>
@@ -24145,7 +24244,7 @@
         <v>2.1888715537558072E-4</v>
       </c>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>57</v>
       </c>
@@ -24175,7 +24274,7 @@
         <v>2.163836597403303E-4</v>
       </c>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>58</v>
       </c>
@@ -24205,7 +24304,7 @@
         <v>2.1393678339200195E-4</v>
       </c>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>59</v>
       </c>
@@ -24235,7 +24334,7 @@
         <v>2.1154462704729853E-4</v>
       </c>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>60</v>
       </c>
@@ -24265,7 +24364,7 @@
         <v>2.0920537543170315E-4</v>
       </c>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>61</v>
       </c>
@@ -24295,7 +24394,7 @@
         <v>2.06917292685452E-4</v>
       </c>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>62</v>
       </c>
@@ -24325,7 +24424,7 @@
         <v>2.0467871806771501E-4</v>
       </c>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>63</v>
       </c>
@@ -24355,7 +24454,7 @@
         <v>2.0248806193664344E-4</v>
       </c>
     </row>
-    <row r="50" spans="2:11">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>64</v>
       </c>
@@ -24385,7 +24484,7 @@
         <v>2.0034380198483414E-4</v>
       </c>
     </row>
-    <row r="51" spans="2:11">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>65</v>
       </c>
@@ -24415,7 +24514,7 @@
         <v>1.9824447971147658E-4</v>
       </c>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>66</v>
       </c>
@@ -24445,7 +24544,7 @@
         <v>1.9618869711400151E-4</v>
       </c>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>67</v>
       </c>
@@ -24475,7 +24574,7 @@
         <v>1.9417511358346085E-4</v>
       </c>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>68</v>
       </c>
@@ -24505,7 +24604,7 @@
         <v>1.9220244298915161E-4</v>
       </c>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>69</v>
       </c>
@@ -24535,7 +24634,7 @@
         <v>1.9026945093916005E-4</v>
       </c>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>70</v>
       </c>
@@ -24565,7 +24664,7 @@
         <v>1.8837495220456527E-4</v>
       </c>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>71</v>
       </c>
@@ -24595,7 +24694,7 @@
         <v>1.8651780829600815E-4</v>
       </c>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>72</v>
       </c>
@@ -24625,7 +24724,7 @@
         <v>1.8469692518221232E-4</v>
       </c>
     </row>
-    <row r="59" spans="2:11">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>73</v>
       </c>
@@ -24655,7 +24754,7 @@
         <v>1.8291125114085178E-4</v>
       </c>
     </row>
-    <row r="60" spans="2:11">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>74</v>
       </c>
@@ -24685,7 +24784,7 @@
         <v>1.811597747328926E-4</v>
       </c>
     </row>
-    <row r="61" spans="2:11">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>75</v>
       </c>
@@ -24715,7 +24814,7 @@
         <v>1.7944152289221192E-4</v>
       </c>
     </row>
-    <row r="62" spans="2:11">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>76</v>
       </c>
@@ -24745,7 +24844,7 @@
         <v>1.7775555912291215E-4</v>
       </c>
     </row>
-    <row r="63" spans="2:11">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>77</v>
       </c>
@@ -24775,7 +24874,7 @@
         <v>1.7610098179731323E-4</v>
       </c>
     </row>
-    <row r="64" spans="2:11">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>78</v>
       </c>
@@ -24805,7 +24904,7 @@
         <v>1.7447692254812379E-4</v>
       </c>
     </row>
-    <row r="65" spans="2:11">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>79</v>
       </c>
@@ -24835,7 +24934,7 @@
         <v>1.7288254474876665E-4</v>
       </c>
     </row>
-    <row r="66" spans="2:11">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>80</v>
       </c>
@@ -24865,7 +24964,7 @@
         <v>1.7131704207627073E-4</v>
       </c>
     </row>
-    <row r="67" spans="2:11">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>81</v>
       </c>
@@ -24895,7 +24994,7 @@
         <v>1.6977963715154355E-4</v>
       </c>
     </row>
-    <row r="68" spans="2:11">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>82</v>
       </c>
@@ -24925,7 +25024,7 @@
         <v>1.6826958025220514E-4</v>
       </c>
     </row>
-    <row r="69" spans="2:11">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>83</v>
       </c>
@@ -24955,7 +25054,7 @@
         <v>1.6678614809350714E-4</v>
       </c>
     </row>
-    <row r="70" spans="2:11">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>84</v>
       </c>
@@ -24985,7 +25084,7 @@
         <v>1.6532864267317107E-4</v>
       </c>
     </row>
-    <row r="71" spans="2:11">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>85</v>
       </c>
@@ -25015,7 +25114,7 @@
         <v>1.6389639017627E-4</v>
       </c>
     </row>
-    <row r="72" spans="2:11">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>86</v>
       </c>
@@ -25045,7 +25144,7 @@
         <v>1.6248873993654427E-4</v>
       </c>
     </row>
-    <row r="73" spans="2:11">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>87</v>
       </c>
@@ -25075,7 +25174,7 @@
         <v>1.6110506345078622E-4</v>
       </c>
     </row>
-    <row r="74" spans="2:11">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>88</v>
       </c>
@@ -25105,7 +25204,7 @@
         <v>1.5974475344315839E-4</v>
       </c>
     </row>
-    <row r="75" spans="2:11">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>89</v>
       </c>
@@ -25135,7 +25234,7 @@
         <v>1.5840722297651781E-4</v>
       </c>
     </row>
-    <row r="76" spans="2:11">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>90</v>
       </c>
@@ -25165,7 +25264,7 @@
         <v>1.5709190460801454E-4</v>
       </c>
     </row>
-    <row r="77" spans="2:11">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>91</v>
       </c>
@@ -25195,7 +25294,7 @@
         <v>1.5579824958641213E-4</v>
       </c>
     </row>
-    <row r="78" spans="2:11">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>92</v>
       </c>
@@ -25225,7 +25324,7 @@
         <v>1.5452572708874474E-4</v>
       </c>
     </row>
-    <row r="79" spans="2:11">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>93</v>
       </c>
@@ -25255,7 +25354,7 @@
         <v>1.5327382349407991E-4</v>
       </c>
     </row>
-    <row r="80" spans="2:11">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B80">
         <v>94</v>
       </c>
@@ -25285,7 +25384,7 @@
         <v>1.520420416922997E-4</v>
       </c>
     </row>
-    <row r="81" spans="2:11">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81">
         <v>95</v>
       </c>
@@ -25315,7 +25414,7 @@
         <v>1.5082990042594591E-4</v>
       </c>
     </row>
-    <row r="82" spans="2:11">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B82">
         <v>96</v>
       </c>
@@ -25345,7 +25444,7 @@
         <v>1.4963693366329872E-4</v>
       </c>
     </row>
-    <row r="83" spans="2:11">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>97</v>
       </c>
@@ -25375,7 +25474,7 @@
         <v>1.4846269000097324E-4</v>
       </c>
     </row>
-    <row r="84" spans="2:11">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B84">
         <v>98</v>
       </c>
@@ -25405,7 +25504,7 @@
         <v>1.4730673209442481E-4</v>
       </c>
     </row>
-    <row r="85" spans="2:11">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B85">
         <v>99</v>
       </c>
@@ -25435,7 +25534,7 @@
         <v>1.4616863611485406E-4</v>
       </c>
     </row>
-    <row r="86" spans="2:11">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>100</v>
       </c>
@@ -25479,9 +25578,9 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K1" t="s">
         <v>4</v>
       </c>
@@ -25492,7 +25591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K2" t="s">
         <v>5</v>
       </c>
@@ -25504,7 +25603,7 @@
         <v>228085500000</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="F3" t="s">
         <v>0</v>
       </c>
@@ -25518,7 +25617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>19</v>
       </c>
@@ -25548,7 +25647,7 @@
         <v>3.9062500000000002E-4</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>20</v>
       </c>
@@ -25578,7 +25677,7 @@
         <v>3.739655994654536E-4</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>21</v>
       </c>
@@ -25608,7 +25707,7 @@
         <v>3.5866905803283292E-4</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>22</v>
       </c>
@@ -25638,7 +25737,7 @@
         <v>3.4457470995639147E-4</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>23</v>
       </c>
@@ -25668,7 +25767,7 @@
         <v>3.3154618885998174E-4</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>24</v>
       </c>
@@ -25698,7 +25797,7 @@
         <v>3.1946700125510597E-4</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>25</v>
       </c>
@@ -25728,7 +25827,7 @@
         <v>3.0823703366241232E-4</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>26</v>
       </c>
@@ -25758,7 +25857,7 @@
         <v>2.9776977141033516E-4</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>27</v>
       </c>
@@ -25788,7 +25887,7 @@
         <v>2.8799006549470071E-4</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>28</v>
       </c>
@@ -25818,7 +25917,7 @@
         <v>2.788323255055108E-4</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>29</v>
       </c>
@@ -25848,7 +25947,7 @@
         <v>2.7023904670473884E-4</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>30</v>
       </c>
@@ -25878,7 +25977,7 @@
         <v>2.6215960132340788E-4</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>31</v>
       </c>
@@ -25908,7 +26007,7 @@
         <v>2.545492403868843E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>32</v>
       </c>
@@ -25938,7 +26037,7 @@
         <v>2.4736826449455894E-4</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>33</v>
       </c>
@@ -25968,7 +26067,7 @@
         <v>2.4058133110522944E-4</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>34</v>
       </c>
@@ -25998,7 +26097,7 @@
         <v>2.3415687281154793E-4</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>35</v>
       </c>
@@ -26028,7 +26127,7 @@
         <v>2.2806660639626482E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>36</v>
       </c>
@@ -26058,7 +26157,7 @@
         <v>2.2228511656103585E-4</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>37</v>
       </c>
@@ -26088,7 +26187,7 @@
         <v>2.1678950140474176E-4</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>38</v>
       </c>
@@ -26118,7 +26217,7 @@
         <v>2.1155906922260345E-4</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>39</v>
       </c>
@@ -26148,7 +26247,7 @@
         <v>2.0657507816284519E-4</v>
       </c>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>40</v>
       </c>
@@ -26178,7 +26277,7 @@
         <v>2.0182051183599098E-4</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>41</v>
       </c>
@@ -26208,7 +26307,7 @@
         <v>1.9727988521467158E-4</v>
       </c>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>42</v>
       </c>
@@ -26238,7 +26337,7 @@
         <v>1.9293907615850392E-4</v>
       </c>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>43</v>
       </c>
@@ -26268,7 +26367,7 @@
         <v>1.887851787021623E-4</v>
       </c>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>44</v>
       </c>
@@ -26298,7 +26397,7 @@
         <v>1.8480637489590203E-4</v>
       </c>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>45</v>
       </c>
@@ -26328,7 +26427,7 @@
         <v>1.8099182251797089E-4</v>
       </c>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>46</v>
       </c>
@@ -26358,7 +26457,7 @@
         <v>1.7733155641202756E-4</v>
       </c>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>47</v>
       </c>
@@ -26388,7 +26487,7 @@
         <v>1.7381640155899407E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>48</v>
       </c>
@@ -26418,7 +26517,7 @@
         <v>1.704378962867505E-4</v>
       </c>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>49</v>
       </c>
@@ -26448,7 +26547,7 @@
         <v>1.6718822426461217E-4</v>
       </c>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>50</v>
       </c>
@@ -26478,7 +26577,7 @@
         <v>1.6406015413205391E-4</v>
       </c>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>51</v>
       </c>
@@ -26508,7 +26607,7 @@
         <v>1.6104698578019535E-4</v>
       </c>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>52</v>
       </c>
@@ -26538,7 +26637,7 @@
         <v>1.5814250244616798E-4</v>
       </c>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>53</v>
       </c>
@@ -26568,7 +26667,7 @@
         <v>1.5534092789951803E-4</v>
       </c>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>54</v>
       </c>
@@ -26598,7 +26697,7 @@
         <v>1.5263688810018017E-4</v>
       </c>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>55</v>
       </c>
@@ -26628,7 +26727,7 @@
         <v>1.5002537679248442E-4</v>
       </c>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>56</v>
       </c>
@@ -26658,7 +26757,7 @@
         <v>1.4750172457172599E-4</v>
       </c>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>57</v>
       </c>
@@ -26688,7 +26787,7 @@
         <v>1.4506157102116599E-4</v>
       </c>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>58</v>
       </c>
@@ -26718,7 +26817,7 @@
         <v>1.4270083956968705E-4</v>
       </c>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>59</v>
       </c>
@@ -26748,7 +26847,7 @@
         <v>1.4041571476513365E-4</v>
       </c>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>60</v>
       </c>
@@ -26778,7 +26877,7 @@
         <v>1.3820262169682345E-4</v>
       </c>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>61</v>
       </c>
@@ -26808,7 +26907,7 @@
         <v>1.360582073337959E-4</v>
       </c>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>62</v>
       </c>
@@ -26838,7 +26937,7 @@
         <v>1.3397932357389977E-4</v>
       </c>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>63</v>
       </c>
@@ -26868,7 +26967,7 @@
         <v>1.3196301182348996E-4</v>
       </c>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>64</v>
       </c>
@@ -26898,7 +26997,7 @@
         <v>1.3000648894887965E-4</v>
       </c>
     </row>
-    <row r="50" spans="2:11">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>65</v>
       </c>
@@ -26928,7 +27027,7 @@
         <v>1.2810713445926265E-4</v>
       </c>
     </row>
-    <row r="51" spans="2:11">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>66</v>
       </c>
@@ -26958,7 +27057,7 @@
         <v>1.2626247879697869E-4</v>
       </c>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>67</v>
       </c>
@@ -26988,7 +27087,7 @@
         <v>1.2447019262509131E-4</v>
       </c>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>68</v>
       </c>
@@ -27018,7 +27117,7 @@
         <v>1.2272807701456834E-4</v>
       </c>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>69</v>
       </c>
@@ -27048,7 +27147,7 @@
         <v>1.2103405444414354E-4</v>
       </c>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>70</v>
       </c>
@@ -27078,7 +27177,7 @@
         <v>1.1938616053540635E-4</v>
       </c>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>71</v>
       </c>
@@ -27108,7 +27207,7 @@
         <v>1.1778253645398948E-4</v>
       </c>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>72</v>
       </c>
@@ -27138,7 +27237,7 @@
         <v>1.1622142191505416E-4</v>
       </c>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>73</v>
       </c>
@@ -27168,7 +27267,7 @@
         <v>1.1470114873773967E-4</v>
       </c>
     </row>
-    <row r="59" spans="2:11">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>74</v>
       </c>
@@ -27198,7 +27297,7 @@
         <v>1.1322013489896022E-4</v>
       </c>
     </row>
-    <row r="60" spans="2:11">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>75</v>
       </c>
@@ -27228,7 +27327,7 @@
         <v>1.1177687904199167E-4</v>
       </c>
     </row>
-    <row r="61" spans="2:11">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>76</v>
       </c>
@@ -27258,7 +27357,7 @@
         <v>1.1036995539977694E-4</v>
       </c>
     </row>
-    <row r="62" spans="2:11">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>77</v>
       </c>
@@ -27288,7 +27387,7 @@
         <v>1.0899800909686484E-4</v>
       </c>
     </row>
-    <row r="63" spans="2:11">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>78</v>
       </c>
@@ -27318,7 +27417,7 @@
         <v>1.076597517974401E-4</v>
       </c>
     </row>
-    <row r="64" spans="2:11">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>79</v>
       </c>
@@ -27348,7 +27447,7 @@
         <v>1.0635395767006131E-4</v>
       </c>
     </row>
-    <row r="65" spans="2:11">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>80</v>
       </c>
@@ -27378,7 +27477,7 @@
         <v>1.0507945964253912E-4</v>
       </c>
     </row>
-    <row r="66" spans="2:11">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>81</v>
       </c>
@@ -27408,7 +27507,7 @@
         <v>1.0383514592290521E-4</v>
       </c>
     </row>
-    <row r="67" spans="2:11">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>82</v>
       </c>
@@ -27438,7 +27537,7 @@
         <v>1.0261995676467291E-4</v>
       </c>
     </row>
-    <row r="68" spans="2:11">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>83</v>
       </c>
@@ -27468,7 +27567,7 @@
         <v>1.0143288145660863E-4</v>
       </c>
     </row>
-    <row r="69" spans="2:11">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>84</v>
       </c>
@@ -27498,7 +27597,7 @@
         <v>1.0027295551904227E-4</v>
       </c>
     </row>
-    <row r="70" spans="2:11">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>85</v>
       </c>
@@ -27528,7 +27627,7 @@
         <v>9.913925809037069E-5</v>
       </c>
     </row>
-    <row r="71" spans="2:11">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>86</v>
       </c>
@@ -27558,7 +27657,7 @@
         <v>9.803090948887002E-5</v>
       </c>
     </row>
-    <row r="72" spans="2:11">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>87</v>
       </c>
@@ -27588,7 +27687,7 @@
         <v>9.6947068936249252E-5</v>
       </c>
     </row>
-    <row r="73" spans="2:11">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>88</v>
       </c>
@@ -27618,7 +27717,7 @@
         <v>9.5886932430564248E-5</v>
       </c>
     </row>
-    <row r="74" spans="2:11">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>89</v>
       </c>
@@ -27648,7 +27747,7 @@
         <v>9.4849730757183036E-5</v>
       </c>
     </row>
-    <row r="75" spans="2:11">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>90</v>
       </c>
@@ -27678,7 +27777,7 @@
         <v>9.3834727627460938E-5</v>
       </c>
     </row>
-    <row r="76" spans="2:11">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>91</v>
       </c>
@@ -27708,7 +27807,7 @@
         <v>9.2841217935660649E-5</v>
       </c>
     </row>
-    <row r="77" spans="2:11">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>92</v>
       </c>
@@ -27738,7 +27837,7 @@
         <v>9.186852612544514E-5</v>
       </c>
     </row>
-    <row r="78" spans="2:11">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>93</v>
       </c>
@@ -27768,7 +27867,7 @@
         <v>9.0916004657990595E-5</v>
       </c>
     </row>
-    <row r="79" spans="2:11">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>94</v>
       </c>
@@ -27798,7 +27897,7 @@
         <v>8.998303257442018E-5</v>
       </c>
     </row>
-    <row r="80" spans="2:11">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B80">
         <v>95</v>
       </c>
@@ -27828,7 +27927,7 @@
         <v>8.9069014145851751E-5</v>
       </c>
     </row>
-    <row r="81" spans="2:11">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81">
         <v>96</v>
       </c>
@@ -27858,7 +27957,7 @@
         <v>8.8173377604892325E-5</v>
       </c>
     </row>
-    <row r="82" spans="2:11">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B82">
         <v>97</v>
       </c>
@@ -27888,7 +27987,7 @@
         <v>8.7295573952903769E-5</v>
       </c>
     </row>
-    <row r="83" spans="2:11">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>98</v>
       </c>
@@ -27918,7 +28017,7 @@
         <v>8.6435075837811395E-5</v>
       </c>
     </row>
-    <row r="84" spans="2:11">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B84">
         <v>99</v>
       </c>
@@ -27958,16 +28057,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBB20EC-63F2-5A4A-973E-9A7312FEC30C}">
   <dimension ref="B1:Z90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="O3" sqref="O3:R88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="19" max="19" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26">
+    <row r="1" spans="2:26" x14ac:dyDescent="0.2">
       <c r="R1" t="s">
         <v>4</v>
       </c>
@@ -27986,7 +28085,7 @@
       </c>
       <c r="Z1" s="5"/>
     </row>
-    <row r="2" spans="2:26">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>38</v>
       </c>
@@ -28021,7 +28120,7 @@
       </c>
       <c r="Z2" s="8"/>
     </row>
-    <row r="3" spans="2:26">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>0</v>
       </c>
@@ -28054,7 +28153,7 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="8"/>
     </row>
-    <row r="4" spans="2:26">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
       </c>
@@ -28113,7 +28212,7 @@
       </c>
       <c r="Z4" s="8"/>
     </row>
-    <row r="5" spans="2:26">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>2</v>
       </c>
@@ -28170,7 +28269,7 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="11"/>
     </row>
-    <row r="6" spans="2:26">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>3</v>
       </c>
@@ -28220,7 +28319,7 @@
         <v>2976.7441860465119</v>
       </c>
     </row>
-    <row r="7" spans="2:26">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>4</v>
       </c>
@@ -28270,7 +28369,7 @@
         <v>3121.9512195121952</v>
       </c>
     </row>
-    <row r="8" spans="2:26">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>5</v>
       </c>
@@ -28320,7 +28419,7 @@
         <v>3282.0512820512822</v>
       </c>
     </row>
-    <row r="9" spans="2:26">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>6</v>
       </c>
@@ -28370,7 +28469,7 @@
         <v>3282.0512820512822</v>
       </c>
     </row>
-    <row r="10" spans="2:26">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>7</v>
       </c>
@@ -28420,7 +28519,7 @@
         <v>3459.4594594594596</v>
       </c>
     </row>
-    <row r="11" spans="2:26">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>8</v>
       </c>
@@ -28470,7 +28569,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="12" spans="2:26">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>9</v>
       </c>
@@ -28520,7 +28619,7 @@
         <v>4129.0322580645161</v>
       </c>
     </row>
-    <row r="13" spans="2:26">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>10</v>
       </c>
@@ -28570,7 +28669,7 @@
         <v>4129.0322580645161</v>
       </c>
     </row>
-    <row r="14" spans="2:26">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>11</v>
       </c>
@@ -28620,7 +28719,7 @@
         <v>4413.7931034482754</v>
       </c>
     </row>
-    <row r="15" spans="2:26">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>12</v>
       </c>
@@ -28670,7 +28769,7 @@
         <v>4571.4285714285716</v>
       </c>
     </row>
-    <row r="16" spans="2:26">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>13</v>
       </c>
@@ -28720,7 +28819,7 @@
         <v>4571.4285714285716</v>
       </c>
     </row>
-    <row r="17" spans="2:21">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>14</v>
       </c>
@@ -28770,7 +28869,7 @@
         <v>4923.0769230769229</v>
       </c>
     </row>
-    <row r="18" spans="2:21">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>15</v>
       </c>
@@ -28824,7 +28923,7 @@
         <v>4923.0769230769229</v>
       </c>
     </row>
-    <row r="19" spans="2:21">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>16</v>
       </c>
@@ -28878,7 +28977,7 @@
         <v>5120</v>
       </c>
     </row>
-    <row r="20" spans="2:21">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>17</v>
       </c>
@@ -28932,7 +29031,7 @@
         <v>5333.333333333333</v>
       </c>
     </row>
-    <row r="21" spans="2:21">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>18</v>
       </c>
@@ -28986,7 +29085,7 @@
         <v>5565.217391304348</v>
       </c>
     </row>
-    <row r="22" spans="2:21">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>19</v>
       </c>
@@ -29040,7 +29139,7 @@
         <v>5818.1818181818189</v>
       </c>
     </row>
-    <row r="23" spans="2:21">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>20</v>
       </c>
@@ -29094,7 +29193,7 @@
         <v>6095.2380952380945</v>
       </c>
     </row>
-    <row r="24" spans="2:21">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>21</v>
       </c>
@@ -29148,7 +29247,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="25" spans="2:21">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>22</v>
       </c>
@@ -29202,7 +29301,7 @@
         <v>6736.8421052631584</v>
       </c>
     </row>
-    <row r="26" spans="2:21">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>23</v>
       </c>
@@ -29256,7 +29355,7 @@
         <v>6736.8421052631584</v>
       </c>
     </row>
-    <row r="27" spans="2:21">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>24</v>
       </c>
@@ -29310,7 +29409,7 @@
         <v>7111.1111111111113</v>
       </c>
     </row>
-    <row r="28" spans="2:21">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>25</v>
       </c>
@@ -29364,7 +29463,7 @@
         <v>7111.1111111111113</v>
       </c>
     </row>
-    <row r="29" spans="2:21">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>26</v>
       </c>
@@ -29418,7 +29517,7 @@
         <v>7111.1111111111113</v>
       </c>
     </row>
-    <row r="30" spans="2:21">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>27</v>
       </c>
@@ -29472,7 +29571,7 @@
         <v>7529.411764705882</v>
       </c>
     </row>
-    <row r="31" spans="2:21">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>28</v>
       </c>
@@ -29526,7 +29625,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="32" spans="2:21">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>29</v>
       </c>
@@ -29580,7 +29679,7 @@
         <v>8533.3333333333339</v>
       </c>
     </row>
-    <row r="33" spans="2:21">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>30</v>
       </c>
@@ -29634,7 +29733,7 @@
         <v>8533.3333333333339</v>
       </c>
     </row>
-    <row r="34" spans="2:21">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>31</v>
       </c>
@@ -29688,7 +29787,7 @@
         <v>8533.3333333333339</v>
       </c>
     </row>
-    <row r="35" spans="2:21">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>32</v>
       </c>
@@ -29742,7 +29841,7 @@
         <v>8533.3333333333339</v>
       </c>
     </row>
-    <row r="36" spans="2:21">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>33</v>
       </c>
@@ -29796,7 +29895,7 @@
         <v>8533.3333333333339</v>
       </c>
     </row>
-    <row r="37" spans="2:21">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>34</v>
       </c>
@@ -29850,7 +29949,7 @@
         <v>9142.8571428571431</v>
       </c>
     </row>
-    <row r="38" spans="2:21">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>35</v>
       </c>
@@ -29904,7 +30003,7 @@
         <v>9142.8571428571431</v>
       </c>
     </row>
-    <row r="39" spans="2:21">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>36</v>
       </c>
@@ -29958,7 +30057,7 @@
         <v>9142.8571428571431</v>
       </c>
     </row>
-    <row r="40" spans="2:21">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>37</v>
       </c>
@@ -30012,7 +30111,7 @@
         <v>9142.8571428571431</v>
       </c>
     </row>
-    <row r="41" spans="2:21">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>38</v>
       </c>
@@ -30066,7 +30165,7 @@
         <v>9142.8571428571431</v>
       </c>
     </row>
-    <row r="42" spans="2:21">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>39</v>
       </c>
@@ -30120,7 +30219,7 @@
         <v>9142.8571428571431</v>
       </c>
     </row>
-    <row r="43" spans="2:21">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>40</v>
       </c>
@@ -30174,7 +30273,7 @@
         <v>9846.1538461538457</v>
       </c>
     </row>
-    <row r="44" spans="2:21">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>41</v>
       </c>
@@ -30228,7 +30327,7 @@
         <v>9846.1538461538457</v>
       </c>
     </row>
-    <row r="45" spans="2:21">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>42</v>
       </c>
@@ -30282,7 +30381,7 @@
         <v>9846.1538461538457</v>
       </c>
     </row>
-    <row r="46" spans="2:21">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>43</v>
       </c>
@@ -30336,7 +30435,7 @@
         <v>9846.1538461538457</v>
       </c>
     </row>
-    <row r="47" spans="2:21">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>44</v>
       </c>
@@ -30390,7 +30489,7 @@
         <v>9846.1538461538457</v>
       </c>
     </row>
-    <row r="48" spans="2:21">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>45</v>
       </c>
@@ -30444,7 +30543,7 @@
         <v>9846.1538461538457</v>
       </c>
     </row>
-    <row r="49" spans="2:21">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>46</v>
       </c>
@@ -30498,7 +30597,7 @@
         <v>9846.1538461538457</v>
       </c>
     </row>
-    <row r="50" spans="2:21">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>47</v>
       </c>
@@ -30552,7 +30651,7 @@
         <v>9846.1538461538457</v>
       </c>
     </row>
-    <row r="51" spans="2:21">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>48</v>
       </c>
@@ -30606,7 +30705,7 @@
         <v>9846.1538461538457</v>
       </c>
     </row>
-    <row r="52" spans="2:21">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>49</v>
       </c>
@@ -30660,7 +30759,7 @@
         <v>9846.1538461538457</v>
       </c>
     </row>
-    <row r="53" spans="2:21">
+    <row r="53" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>50</v>
       </c>
@@ -30714,7 +30813,7 @@
         <v>9142.8571428571431</v>
       </c>
     </row>
-    <row r="54" spans="2:21">
+    <row r="54" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>51</v>
       </c>
@@ -30768,7 +30867,7 @@
         <v>9846.1538461538457</v>
       </c>
     </row>
-    <row r="55" spans="2:21">
+    <row r="55" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>52</v>
       </c>
@@ -30822,7 +30921,7 @@
         <v>9846.1538461538457</v>
       </c>
     </row>
-    <row r="56" spans="2:21">
+    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>53</v>
       </c>
@@ -30876,7 +30975,7 @@
         <v>9846.1538461538457</v>
       </c>
     </row>
-    <row r="57" spans="2:21">
+    <row r="57" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>54</v>
       </c>
@@ -30930,7 +31029,7 @@
         <v>9846.1538461538457</v>
       </c>
     </row>
-    <row r="58" spans="2:21">
+    <row r="58" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>55</v>
       </c>
@@ -30984,7 +31083,7 @@
         <v>9846.1538461538457</v>
       </c>
     </row>
-    <row r="59" spans="2:21">
+    <row r="59" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>56</v>
       </c>
@@ -31038,7 +31137,7 @@
         <v>9142.8571428571431</v>
       </c>
     </row>
-    <row r="60" spans="2:21">
+    <row r="60" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>57</v>
       </c>
@@ -31092,7 +31191,7 @@
         <v>9846.1538461538457</v>
       </c>
     </row>
-    <row r="61" spans="2:21">
+    <row r="61" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>58</v>
       </c>
@@ -31146,7 +31245,7 @@
         <v>9846.1538461538457</v>
       </c>
     </row>
-    <row r="62" spans="2:21">
+    <row r="62" spans="2:21" x14ac:dyDescent="0.2">
       <c r="I62">
         <v>74</v>
       </c>
@@ -31184,7 +31283,7 @@
         <v>9846.1538461538457</v>
       </c>
     </row>
-    <row r="63" spans="2:21">
+    <row r="63" spans="2:21" x14ac:dyDescent="0.2">
       <c r="I63">
         <v>75</v>
       </c>
@@ -31222,7 +31321,7 @@
         <v>9846.1538461538457</v>
       </c>
     </row>
-    <row r="64" spans="2:21">
+    <row r="64" spans="2:21" x14ac:dyDescent="0.2">
       <c r="I64">
         <v>76</v>
       </c>
@@ -31260,7 +31359,7 @@
         <v>10666.666666666666</v>
       </c>
     </row>
-    <row r="65" spans="9:21">
+    <row r="65" spans="9:21" x14ac:dyDescent="0.2">
       <c r="I65">
         <v>77</v>
       </c>
@@ -31298,7 +31397,7 @@
         <v>10666.666666666666</v>
       </c>
     </row>
-    <row r="66" spans="9:21">
+    <row r="66" spans="9:21" x14ac:dyDescent="0.2">
       <c r="I66">
         <v>78</v>
       </c>
@@ -31336,7 +31435,7 @@
         <v>11636.363636363638</v>
       </c>
     </row>
-    <row r="67" spans="9:21">
+    <row r="67" spans="9:21" x14ac:dyDescent="0.2">
       <c r="I67">
         <v>79</v>
       </c>
@@ -31374,7 +31473,7 @@
         <v>11636.363636363638</v>
       </c>
     </row>
-    <row r="68" spans="9:21">
+    <row r="68" spans="9:21" x14ac:dyDescent="0.2">
       <c r="I68">
         <v>80</v>
       </c>
@@ -31412,7 +31511,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="69" spans="9:21">
+    <row r="69" spans="9:21" x14ac:dyDescent="0.2">
       <c r="I69">
         <v>81</v>
       </c>
@@ -31450,7 +31549,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="70" spans="9:21">
+    <row r="70" spans="9:21" x14ac:dyDescent="0.2">
       <c r="I70">
         <v>82</v>
       </c>
@@ -31488,7 +31587,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="71" spans="9:21">
+    <row r="71" spans="9:21" x14ac:dyDescent="0.2">
       <c r="I71">
         <v>83</v>
       </c>
@@ -31526,7 +31625,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="72" spans="9:21">
+    <row r="72" spans="9:21" x14ac:dyDescent="0.2">
       <c r="I72">
         <v>84</v>
       </c>
@@ -31564,7 +31663,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="73" spans="9:21">
+    <row r="73" spans="9:21" x14ac:dyDescent="0.2">
       <c r="I73">
         <v>85</v>
       </c>
@@ -31602,7 +31701,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="74" spans="9:21">
+    <row r="74" spans="9:21" x14ac:dyDescent="0.2">
       <c r="I74">
         <v>86</v>
       </c>
@@ -31640,7 +31739,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="75" spans="9:21">
+    <row r="75" spans="9:21" x14ac:dyDescent="0.2">
       <c r="I75">
         <v>87</v>
       </c>
@@ -31678,7 +31777,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="76" spans="9:21">
+    <row r="76" spans="9:21" x14ac:dyDescent="0.2">
       <c r="I76">
         <v>88</v>
       </c>
@@ -31716,7 +31815,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="77" spans="9:21">
+    <row r="77" spans="9:21" x14ac:dyDescent="0.2">
       <c r="I77">
         <v>89</v>
       </c>
@@ -31754,7 +31853,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="78" spans="9:21">
+    <row r="78" spans="9:21" x14ac:dyDescent="0.2">
       <c r="I78">
         <v>90</v>
       </c>
@@ -31792,7 +31891,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="79" spans="9:21">
+    <row r="79" spans="9:21" x14ac:dyDescent="0.2">
       <c r="I79">
         <v>91</v>
       </c>
@@ -31830,7 +31929,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="80" spans="9:21">
+    <row r="80" spans="9:21" x14ac:dyDescent="0.2">
       <c r="I80">
         <v>92</v>
       </c>
@@ -31868,7 +31967,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="81" spans="9:21">
+    <row r="81" spans="9:21" x14ac:dyDescent="0.2">
       <c r="I81">
         <v>93</v>
       </c>
@@ -31906,7 +32005,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="82" spans="9:21">
+    <row r="82" spans="9:21" x14ac:dyDescent="0.2">
       <c r="I82">
         <v>94</v>
       </c>
@@ -31944,7 +32043,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="83" spans="9:21">
+    <row r="83" spans="9:21" x14ac:dyDescent="0.2">
       <c r="I83">
         <v>95</v>
       </c>
@@ -31982,7 +32081,7 @@
         <v>14222.222222222223</v>
       </c>
     </row>
-    <row r="84" spans="9:21">
+    <row r="84" spans="9:21" x14ac:dyDescent="0.2">
       <c r="I84">
         <v>96</v>
       </c>
@@ -32020,7 +32119,7 @@
         <v>14222.222222222223</v>
       </c>
     </row>
-    <row r="85" spans="9:21">
+    <row r="85" spans="9:21" x14ac:dyDescent="0.2">
       <c r="I85">
         <v>97</v>
       </c>
@@ -32058,7 +32157,7 @@
         <v>14222.222222222223</v>
       </c>
     </row>
-    <row r="86" spans="9:21">
+    <row r="86" spans="9:21" x14ac:dyDescent="0.2">
       <c r="I86">
         <v>98</v>
       </c>
@@ -32096,7 +32195,7 @@
         <v>14222.222222222223</v>
       </c>
     </row>
-    <row r="87" spans="9:21">
+    <row r="87" spans="9:21" x14ac:dyDescent="0.2">
       <c r="I87">
         <v>99</v>
       </c>
@@ -32134,7 +32233,7 @@
         <v>14222.222222222223</v>
       </c>
     </row>
-    <row r="88" spans="9:21">
+    <row r="88" spans="9:21" x14ac:dyDescent="0.2">
       <c r="I88">
         <v>100</v>
       </c>
@@ -32172,7 +32271,7 @@
         <v>18285.714285714286</v>
       </c>
     </row>
-    <row r="90" spans="9:21">
+    <row r="90" spans="9:21" x14ac:dyDescent="0.2">
       <c r="S90">
         <f>SUM(S4:S88)</f>
         <v>9.4891947612107147E-2</v>
@@ -32192,13 +32291,13 @@
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K1" t="s">
         <v>4</v>
       </c>
@@ -32209,7 +32308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K2" t="s">
         <v>5</v>
       </c>
@@ -32221,7 +32320,7 @@
         <v>844737400000</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="F3" t="s">
         <v>0</v>
       </c>
@@ -32235,7 +32334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>15</v>
       </c>
@@ -32269,7 +32368,7 @@
         <v>7.2103011003150433E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>16</v>
       </c>
@@ -32299,7 +32398,7 @@
         <v>3.467518002439911E-4</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>17</v>
       </c>
@@ -32329,7 +32428,7 @@
         <v>3.0245510111025171E-4</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>18</v>
       </c>
@@ -32359,7 +32458,7 @@
         <v>2.6819397330471044E-4</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>19</v>
       </c>
@@ -32389,7 +32488,7 @@
         <v>2.4090503619094119E-4</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>20</v>
       </c>
@@ -32419,7 +32518,7 @@
         <v>2.1865656715530608E-4</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>21</v>
       </c>
@@ -32449,7 +32548,7 @@
         <v>2.001701181163525E-4</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>22</v>
       </c>
@@ -32479,7 +32578,7 @@
         <v>1.8456588592320207E-4</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>23</v>
       </c>
@@ -32509,7 +32608,7 @@
         <v>1.7121856760316477E-4</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>24</v>
       </c>
@@ -32539,7 +32638,7 @@
         <v>1.596715425684351E-4</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>25</v>
       </c>
@@ -32569,7 +32668,7 @@
         <v>1.4958358633575112E-4</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>26</v>
       </c>
@@ -32599,7 +32698,7 @@
         <v>1.4069458346557405E-4</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>27</v>
       </c>
@@ -32629,7 +32728,7 @@
         <v>1.3280277982615282E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>28</v>
       </c>
@@ -32659,7 +32758,7 @@
         <v>1.2574928400074651E-4</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>29</v>
       </c>
@@ -32689,7 +32788,7 @@
         <v>1.1940725862065617E-4</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>30</v>
       </c>
@@ -32719,7 +32818,7 @@
         <v>1.1367422540076536E-4</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>31</v>
       </c>
@@ -32749,7 +32848,7 @@
         <v>1.0846648534452245E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>32</v>
       </c>
@@ -32779,7 +32878,7 @@
         <v>1.0371500551899057E-4</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>33</v>
       </c>
@@ -32809,7 +32908,7 @@
         <v>9.9362341561568066E-5</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>34</v>
       </c>
@@ -32839,7 +32938,7 @@
         <v>9.5360303903723172E-5</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>35</v>
       </c>
@@ -32869,7 +32968,7 @@
         <v>9.16681661463229E-5</v>
       </c>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>36</v>
       </c>
@@ -32899,7 +32998,7 @@
         <v>8.8251274127261071E-5</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>37</v>
       </c>
@@ -32929,7 +33028,7 @@
         <v>8.5079954888932482E-5</v>
       </c>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>38</v>
       </c>
@@ -32959,7 +33058,7 @@
         <v>8.212865272387103E-5</v>
       </c>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>39</v>
       </c>
@@ -32989,7 +33088,7 @@
         <v>7.9375239008003335E-5</v>
       </c>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>40</v>
       </c>
@@ -33019,7 +33118,7 @@
         <v>7.6800456360127148E-5</v>
       </c>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>41</v>
       </c>
@@ -33049,7 +33148,7 @@
         <v>7.4387467584902808E-5</v>
       </c>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>42</v>
       </c>
@@ -33079,7 +33178,7 @@
         <v>7.2121487056054081E-5</v>
       </c>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>43</v>
       </c>
@@ -33109,7 +33208,7 @@
         <v>6.998947748046246E-5</v>
       </c>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>44</v>
       </c>
@@ -33139,7 +33238,7 @@
         <v>6.7979898902375584E-5</v>
       </c>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>45</v>
       </c>
@@ -33169,7 +33268,7 @@
         <v>6.6082499741147222E-5</v>
       </c>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>46</v>
       </c>
@@ -33199,7 +33298,7 @@
         <v>6.4288141873065411E-5</v>
       </c>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>47</v>
       </c>
@@ -33229,7 +33328,7 @@
         <v>6.2588653457464223E-5</v>
       </c>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>48</v>
       </c>
@@ -33259,7 +33358,7 @@
         <v>6.09767045053088E-5</v>
       </c>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>49</v>
       </c>
@@ -33289,7 +33388,7 @@
         <v>5.9445701193126529E-5</v>
       </c>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>50</v>
       </c>
@@ -33319,7 +33418,7 @@
         <v>5.7989695708372425E-5</v>
       </c>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>51</v>
       </c>
@@ -33349,7 +33448,7 @@
         <v>5.660330902700742E-5</v>
       </c>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>52</v>
       </c>
@@ -33379,7 +33478,7 @@
         <v>5.5281664509588165E-5</v>
       </c>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>53</v>
       </c>
@@ -33409,7 +33508,7 @@
         <v>5.4020330587984397E-5</v>
       </c>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>54</v>
       </c>
@@ -33439,7 +33538,7 @@
         <v>5.2815271123198628E-5</v>
       </c>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>55</v>
       </c>
@@ -33469,7 +33568,7 @@
         <v>5.1662802262563681E-5</v>
       </c>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>56</v>
       </c>
@@ -33499,7 +33598,7 @@
         <v>5.0559554824768792E-5</v>
       </c>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>57</v>
       </c>
@@ -33529,7 +33628,7 @@
         <v>4.9502441403672614E-5</v>
       </c>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>58</v>
       </c>
@@ -33559,7 +33658,7 @@
         <v>4.8488627514415214E-5</v>
       </c>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>59</v>
       </c>
@@ -33589,7 +33688,7 @@
         <v>4.7515506213952891E-5</v>
       </c>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>60</v>
       </c>
@@ -33619,7 +33718,7 @@
         <v>4.6580675717520083E-5</v>
       </c>
     </row>
-    <row r="50" spans="2:11">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>61</v>
       </c>
@@ -33649,7 +33748,7 @@
         <v>4.568191960638142E-5</v>
       </c>
     </row>
-    <row r="51" spans="2:11">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>62</v>
       </c>
@@ -33679,7 +33778,7 @@
         <v>4.4817189283513513E-5</v>
       </c>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>63</v>
       </c>
@@ -33709,7 +33808,7 @@
         <v>4.3984588384886614E-5</v>
       </c>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>64</v>
       </c>
@@ -33739,7 +33838,7 @@
         <v>4.3182358896670515E-5</v>
       </c>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>65</v>
       </c>
@@ -33769,7 +33868,7 @@
         <v>4.2408868764467034E-5</v>
       </c>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>66</v>
       </c>
@@ -33799,7 +33898,7 @@
         <v>4.1662600810782868E-5</v>
       </c>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>67</v>
       </c>
@@ -33829,7 +33928,7 @@
         <v>4.0942142802382063E-5</v>
       </c>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>68</v>
       </c>
@@ -33859,7 +33958,7 @@
         <v>4.0246178530692597E-5</v>
       </c>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>69</v>
       </c>
@@ -33889,7 +33988,7 @@
         <v>3.9573479786737441E-5</v>
       </c>
     </row>
-    <row r="59" spans="2:11">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>70</v>
       </c>
@@ -33919,7 +34018,7 @@
         <v>3.8922899127649658E-5</v>
       </c>
     </row>
-    <row r="60" spans="2:11">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>71</v>
       </c>
@@ -33949,7 +34048,7 @@
         <v>3.829336334515005E-5</v>
       </c>
     </row>
-    <row r="61" spans="2:11">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>72</v>
       </c>
@@ -33979,7 +34078,7 @@
         <v>3.7683867557778321E-5</v>
       </c>
     </row>
-    <row r="62" spans="2:11">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>73</v>
       </c>
@@ -34009,7 +34108,7 @@
         <v>3.7093469858470421E-5</v>
       </c>
     </row>
-    <row r="63" spans="2:11">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>74</v>
       </c>
@@ -34039,7 +34138,7 @@
         <v>3.6521286457517129E-5</v>
       </c>
     </row>
-    <row r="64" spans="2:11">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>75</v>
       </c>
@@ -34069,7 +34168,7 @@
         <v>3.5966487268225939E-5</v>
       </c>
     </row>
-    <row r="65" spans="2:11">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>76</v>
       </c>
@@ -34099,7 +34198,7 @@
         <v>3.5428291888914603E-5</v>
       </c>
     </row>
-    <row r="66" spans="2:11">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>77</v>
       </c>
@@ -34129,7 +34228,7 @@
         <v>3.4905965940334038E-5</v>
       </c>
     </row>
-    <row r="67" spans="2:11">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>78</v>
       </c>
@@ -34159,7 +34258,7 @@
         <v>3.4398817722372391E-5</v>
       </c>
     </row>
-    <row r="68" spans="2:11">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>79</v>
       </c>
@@ -34189,7 +34288,7 @@
         <v>3.3906195158033414E-5</v>
       </c>
     </row>
-    <row r="69" spans="2:11">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>80</v>
       </c>
@@ -34219,7 +34318,7 @@
         <v>3.3427482996297583E-5</v>
       </c>
     </row>
-    <row r="70" spans="2:11">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>81</v>
       </c>
@@ -34249,7 +34348,7 @@
         <v>3.2962100248636521E-5</v>
       </c>
     </row>
-    <row r="71" spans="2:11">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>82</v>
       </c>
@@ -34279,7 +34378,7 @@
         <v>3.2509497836722608E-5</v>
       </c>
     </row>
-    <row r="72" spans="2:11">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>83</v>
       </c>
@@ -34309,7 +34408,7 @@
         <v>3.2069156431309422E-5</v>
       </c>
     </row>
-    <row r="73" spans="2:11">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>84</v>
       </c>
@@ -34339,7 +34438,7 @@
         <v>3.1640584464399182E-5</v>
       </c>
     </row>
-    <row r="74" spans="2:11">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>85</v>
       </c>
@@ -34369,7 +34468,7 @@
         <v>3.1223316298700565E-5</v>
       </c>
     </row>
-    <row r="75" spans="2:11">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>86</v>
       </c>
@@ -34399,7 +34498,7 @@
         <v>3.0816910540045521E-5</v>
       </c>
     </row>
-    <row r="76" spans="2:11">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>87</v>
       </c>
@@ -34429,7 +34528,7 @@
         <v>3.0420948479907231E-5</v>
       </c>
     </row>
-    <row r="77" spans="2:11">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>88</v>
       </c>
@@ -34459,7 +34558,7 @@
         <v>3.0035032656466049E-5</v>
       </c>
     </row>
-    <row r="78" spans="2:11">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>89</v>
       </c>
@@ -34489,7 +34588,7 @@
         <v>2.9658785523828041E-5</v>
       </c>
     </row>
-    <row r="79" spans="2:11">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>90</v>
       </c>
@@ -34519,7 +34618,7 @@
         <v>2.9291848220029863E-5</v>
       </c>
     </row>
-    <row r="80" spans="2:11">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B80">
         <v>91</v>
       </c>
@@ -34549,7 +34648,7 @@
         <v>2.8933879425379103E-5</v>
       </c>
     </row>
-    <row r="81" spans="2:11">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81">
         <v>92</v>
       </c>
@@ -34579,7 +34678,7 @@
         <v>2.8584554303495715E-5</v>
       </c>
     </row>
-    <row r="82" spans="2:11">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B82">
         <v>93</v>
       </c>
@@ -34609,7 +34708,7 @@
         <v>2.8243563518148608E-5</v>
       </c>
     </row>
-    <row r="83" spans="2:11">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>94</v>
       </c>
@@ -34639,7 +34738,7 @@
         <v>2.7910612319632761E-5</v>
       </c>
     </row>
-    <row r="84" spans="2:11">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B84">
         <v>95</v>
       </c>
@@ -34669,7 +34768,7 @@
         <v>2.758541969501526E-5</v>
       </c>
     </row>
-    <row r="85" spans="2:11">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B85">
         <v>96</v>
       </c>
@@ -34699,7 +34798,7 @@
         <v>2.7267717577101175E-5</v>
       </c>
     </row>
-    <row r="86" spans="2:11">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>97</v>
       </c>
@@ -34729,7 +34828,7 @@
         <v>2.6957250107439262E-5</v>
       </c>
     </row>
-    <row r="87" spans="2:11">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B87">
         <v>98</v>
       </c>
@@ -34759,7 +34858,7 @@
         <v>2.6653772949108917E-5</v>
       </c>
     </row>
-    <row r="88" spans="2:11">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B88">
         <v>99</v>
       </c>
@@ -34789,7 +34888,7 @@
         <v>2.6357052645409078E-5</v>
       </c>
     </row>
-    <row r="89" spans="2:11">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B89">
         <v>100</v>
       </c>
@@ -34829,11 +34928,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252FA30F-E103-4649-88D7-4233D6C1B8D8}">
   <dimension ref="B1:X49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
@@ -34844,7 +34943,7 @@
     <col min="24" max="24" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>14</v>
       </c>
@@ -34852,12 +34951,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:24">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="R2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" t="s">
+        <v>10</v>
+      </c>
       <c r="W2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="2:24">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -34888,11 +34993,16 @@
       <c r="O3" t="s">
         <v>22</v>
       </c>
-      <c r="R3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" t="s">
-        <v>10</v>
+      <c r="Q3">
+        <v>400</v>
+      </c>
+      <c r="R3" s="14">
+        <f>(0.000034294)*Q3^(5.6658)</f>
+        <v>18965733442.117989</v>
+      </c>
+      <c r="S3">
+        <f>(0.00000000000003429)*Q3^5.666</f>
+        <v>18.986258781292236</v>
       </c>
       <c r="V3" t="s">
         <v>52</v>
@@ -34904,7 +35014,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:24">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>600</v>
       </c>
@@ -34953,13 +35063,16 @@
         <f>O4*2000</f>
         <v>3.3097842061350226E-2</v>
       </c>
+      <c r="Q4">
+        <v>600</v>
+      </c>
       <c r="R4" s="14">
-        <f t="shared" ref="R4:R10" si="0">(24600000)*(B4^2)-(30750000000)*B4+(9850000000000)</f>
-        <v>256000000000</v>
+        <f t="shared" ref="R4:R10" si="0">(0.000034294)*Q4^(5.6658)</f>
+        <v>188654642914.60367</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S10" si="1">(0.0246)*B4^2-(30.75)*B4+9850</f>
-        <v>256</v>
+        <f t="shared" ref="S4:S10" si="1">(0.00000000000003429)*Q4^5.666</f>
+        <v>188.87412691333995</v>
       </c>
       <c r="V4">
         <f>1/I4/(0.000086173)</f>
@@ -34974,7 +35087,7 @@
         <v>1.3808163356151045E-12</v>
       </c>
     </row>
-    <row r="5" spans="2:24">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>700</v>
       </c>
@@ -35023,13 +35136,16 @@
         <f t="shared" ref="P5:P10" si="8">O5*2000</f>
         <v>0.14321659739635903</v>
       </c>
+      <c r="Q5">
+        <v>700</v>
+      </c>
       <c r="R5" s="14">
         <f t="shared" si="0"/>
-        <v>379000000000</v>
+        <v>451829537436.12347</v>
       </c>
       <c r="S5">
         <f t="shared" si="1"/>
-        <v>379</v>
+        <v>452.36914994068786</v>
       </c>
       <c r="V5">
         <f t="shared" ref="V5:V8" si="9">1/I5/(0.000086173)</f>
@@ -35044,7 +35160,7 @@
         <v>8.6716926281031581E-12</v>
       </c>
     </row>
-    <row r="6" spans="2:24">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>800</v>
       </c>
@@ -35086,13 +35202,16 @@
         <f t="shared" si="8"/>
         <v>0.43209507049678109</v>
       </c>
+      <c r="Q6">
+        <v>800</v>
+      </c>
       <c r="R6" s="14">
         <f t="shared" si="0"/>
-        <v>994000000000</v>
+        <v>962820640302.08105</v>
       </c>
       <c r="S6">
         <f t="shared" si="1"/>
-        <v>994</v>
+        <v>963.99626539418955</v>
       </c>
       <c r="V6">
         <f t="shared" si="9"/>
@@ -35107,7 +35226,7 @@
         <v>3.440169532769071E-11</v>
       </c>
     </row>
-    <row r="7" spans="2:24">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>900</v>
       </c>
@@ -35156,13 +35275,16 @@
         <f t="shared" si="8"/>
         <v>1.0243942135810911</v>
       </c>
+      <c r="Q7">
+        <v>900</v>
+      </c>
       <c r="R7" s="14">
         <f t="shared" si="0"/>
-        <v>2101000000000</v>
+        <v>1876572524962.2778</v>
       </c>
       <c r="S7">
         <f t="shared" si="1"/>
-        <v>2101</v>
+        <v>1878.9081213001596</v>
       </c>
       <c r="V7">
         <f t="shared" si="9"/>
@@ -35177,7 +35299,7 @@
         <v>1.0047572646902844E-10</v>
       </c>
     </row>
-    <row r="8" spans="2:24">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>1000</v>
       </c>
@@ -35219,13 +35341,16 @@
         <f>O8*2000</f>
         <v>2.0502697739534419</v>
       </c>
+      <c r="Q8">
+        <v>1000</v>
+      </c>
       <c r="R8" s="14">
         <f t="shared" si="0"/>
-        <v>3700000000000</v>
+        <v>3408930471989.5225</v>
       </c>
       <c r="S8">
         <f t="shared" si="1"/>
-        <v>3700</v>
+        <v>3413.2451760983845</v>
       </c>
       <c r="V8">
         <f t="shared" si="9"/>
@@ -35240,7 +35365,7 @@
         <v>2.3683517390330481E-10</v>
       </c>
     </row>
-    <row r="9" spans="2:24">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>1100</v>
       </c>
@@ -35257,16 +35382,19 @@
       </c>
       <c r="O9" s="14"/>
       <c r="P9" s="17"/>
+      <c r="Q9">
+        <v>1100</v>
+      </c>
       <c r="R9" s="14">
         <f t="shared" si="0"/>
-        <v>5791000000000</v>
+        <v>5849797318633.75</v>
       </c>
       <c r="S9">
         <f t="shared" si="1"/>
-        <v>5791</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24">
+        <v>5857.3130940598221</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>1200</v>
       </c>
@@ -35308,16 +35436,19 @@
         <f t="shared" si="8"/>
         <v>5.8436816152164957</v>
       </c>
+      <c r="Q10">
+        <v>1200</v>
+      </c>
       <c r="R10" s="14">
         <f t="shared" si="0"/>
-        <v>8374000000000</v>
+        <v>9577303437346.7676</v>
       </c>
       <c r="S10">
         <f t="shared" si="1"/>
-        <v>8374</v>
-      </c>
-    </row>
-    <row r="12" spans="2:24">
+        <v>9589.7751669460631</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -35331,7 +35462,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="2:24">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>17</v>
       </c>
@@ -35345,7 +35476,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:24">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>600</v>
       </c>
@@ -35382,7 +35513,7 @@
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="2:24">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>700</v>
       </c>
@@ -35419,7 +35550,7 @@
       </c>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="2:24">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>800</v>
       </c>
@@ -35456,7 +35587,7 @@
       </c>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>900</v>
       </c>
@@ -35493,7 +35624,7 @@
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>1000</v>
       </c>
@@ -35530,7 +35661,7 @@
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>1200</v>
       </c>
@@ -35567,7 +35698,7 @@
       </c>
       <c r="K19" s="1"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>19</v>
       </c>
@@ -35575,7 +35706,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>600</v>
       </c>
@@ -35588,7 +35719,7 @@
         <v>1.02E-9</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>800</v>
       </c>
@@ -35603,7 +35734,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>1000</v>
       </c>
@@ -35618,7 +35749,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="G25" t="s">
         <v>11</v>
       </c>
@@ -35631,7 +35762,7 @@
         <v>7.8400000000000003E-7</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C26">
         <f>C22*(0.000000001)</f>
         <v>1.0693659547599843E-2</v>
@@ -35644,7 +35775,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C27">
         <f t="shared" ref="C27" si="18">C23*(0.000000001)</f>
         <v>0.13960661143780412</v>
@@ -35660,13 +35791,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" ht="19" x14ac:dyDescent="0.2">
       <c r="C28">
         <f>C24*(0.000000001)</f>
         <v>0.66242647791818543</v>
       </c>
-    </row>
-    <row r="30" spans="2:11">
+      <c r="K28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
       <c r="C30" s="4" t="s">
         <v>23</v>
@@ -35675,14 +35809,14 @@
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="6"/>
       <c r="C32" s="7" t="s">
         <v>6</v>
@@ -35695,14 +35829,14 @@
       </c>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="6"/>
       <c r="C34" s="7" t="s">
         <v>16</v>
@@ -35715,7 +35849,7 @@
       </c>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="6"/>
       <c r="C35" s="7" t="s">
         <v>18</v>
@@ -35728,14 +35862,14 @@
       </c>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
         <v>25</v>
       </c>
@@ -35750,7 +35884,7 @@
       </c>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="6"/>
       <c r="C38" s="7" t="s">
         <v>11</v>
@@ -35764,14 +35898,14 @@
       </c>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
         <v>25</v>
       </c>
@@ -35787,14 +35921,14 @@
       </c>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" s="6"/>
       <c r="C42" s="7" t="s">
         <v>6</v>
@@ -35808,14 +35942,14 @@
       </c>
       <c r="F42" s="8"/>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" s="6"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="8"/>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" s="6"/>
       <c r="C44" s="7" t="s">
         <v>33</v>
@@ -35824,21 +35958,21 @@
       <c r="E44" s="7"/>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="2:6">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" s="6"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="8"/>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46" s="9"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="11"/>
     </row>
-    <row r="49" spans="5:5">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E49">
         <f>0.0246*1100^2-30.755*1100+9850.2</f>
         <v>5785.7000000000007</v>
